--- a/Excel Output/Section_2.xlsx
+++ b/Excel Output/Section_2.xlsx
@@ -496,55 +496,55 @@
         <v>1e-08</v>
       </c>
       <c r="B2">
-        <v>19.14371028438445</v>
+        <v>16.82497721218401</v>
       </c>
       <c r="C2">
-        <v>32.29353048521206</v>
+        <v>28.45306221837776</v>
       </c>
       <c r="D2">
-        <v>14994348991619.75</v>
+        <v>14260474774119.6</v>
       </c>
       <c r="E2">
-        <v>8.280479287132091e-08</v>
+        <v>7.087684130333826e-08</v>
       </c>
       <c r="F2">
-        <v>0.006307772873710435</v>
+        <v>0.00599904910821384</v>
       </c>
       <c r="G2">
-        <v>312.7247395955939</v>
+        <v>304.6232073171274</v>
       </c>
       <c r="H2">
-        <v>0.9132990324280202</v>
+        <v>0.9158647890537029</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
       </c>
       <c r="J2">
-        <v>1.728221986055339e-07</v>
+        <v>1.643636949493113e-07</v>
       </c>
       <c r="K2">
-        <v>2.089940065579844e-05</v>
+        <v>2.208501468066418e-05</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.000000056181185</v>
+        <v>1.000000059368319</v>
       </c>
       <c r="N2">
-        <v>8.53425130254512e-06</v>
+        <v>7.304900528563438e-06</v>
       </c>
       <c r="O2">
-        <v>4.030322036693753e-06</v>
+        <v>3.878162670241887e-06</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5617127344509417</v>
+        <v>0.561042332172635</v>
       </c>
       <c r="R2">
-        <v>0.882690376090834</v>
+        <v>0.9260485244735909</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.806160266417284</v>
+        <v>0.8481352365204982</v>
       </c>
       <c r="X2">
-        <v>-8.652413081171326e-06</v>
+        <v>-5.848463958674458e-06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -570,55 +570,55 @@
         <v>1.193776641714436e-08</v>
       </c>
       <c r="B3">
-        <v>16.03625805317425</v>
+        <v>14.09390720530509</v>
       </c>
       <c r="C3">
-        <v>27.14683118431692</v>
+        <v>23.9303366529715</v>
       </c>
       <c r="D3">
-        <v>10558644146829.01</v>
+        <v>10046868144314.35</v>
       </c>
       <c r="E3">
-        <v>5.830905643644854e-08</v>
+        <v>4.993454217614539e-08</v>
       </c>
       <c r="F3">
-        <v>0.004441775309468434</v>
+        <v>0.004226483082517988</v>
       </c>
       <c r="G3">
-        <v>444.1009488152871</v>
+        <v>432.3806683992032</v>
       </c>
       <c r="H3">
-        <v>0.9298360946074548</v>
+        <v>0.9319300097762322</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
       </c>
       <c r="J3">
-        <v>1.881528640822294e-07</v>
+        <v>1.790331211206668e-07</v>
       </c>
       <c r="K3">
-        <v>2.275333911221625e-05</v>
+        <v>2.405609772580513e-05</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.00000006116489</v>
+        <v>1.000000064666929</v>
       </c>
       <c r="N3">
-        <v>9.291305389746063e-06</v>
+        <v>7.956861407308007e-06</v>
       </c>
       <c r="O3">
-        <v>4.03032210661473e-06</v>
+        <v>3.878162721782123e-06</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5607770499480597</v>
+        <v>0.5599938262080263</v>
       </c>
       <c r="R3">
-        <v>0.8828740715319079</v>
+        <v>0.9261784439722154</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.8209281787034118</v>
+        <v>0.8631334863455622</v>
       </c>
       <c r="X3">
-        <v>-0.0007686223740307397</v>
+        <v>-0.0005007448236685838</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -644,55 +644,55 @@
         <v>1.425102670302998e-08</v>
       </c>
       <c r="B4">
-        <v>13.43321480150915</v>
+        <v>11.80615092708146</v>
       </c>
       <c r="C4">
-        <v>22.83637014708915</v>
+        <v>20.14266782716223</v>
       </c>
       <c r="D4">
-        <v>7440343871578.398</v>
+        <v>7083955235801.319</v>
       </c>
       <c r="E4">
-        <v>4.108855499640454e-08</v>
+        <v>3.520839095477028e-08</v>
       </c>
       <c r="F4">
-        <v>0.003129979118830028</v>
+        <v>0.002980054732615612</v>
       </c>
       <c r="G4">
-        <v>630.2267697225388</v>
+        <v>613.226851237423</v>
       </c>
       <c r="H4">
-        <v>0.9434162740667068</v>
+        <v>0.9451144075755642</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
       </c>
       <c r="J4">
-        <v>2.049870650543035e-07</v>
+        <v>1.951682903138354e-07</v>
       </c>
       <c r="K4">
-        <v>2.47891002220413e-05</v>
+        <v>2.622412788974141e-05</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.000000066637366</v>
+        <v>1.000000070494967</v>
       </c>
       <c r="N4">
-        <v>1.012260659255711e-05</v>
+        <v>8.673965059692961e-06</v>
       </c>
       <c r="O4">
-        <v>4.030322190234495e-06</v>
+        <v>3.87816278355758e-06</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.559685548558446</v>
+        <v>0.5587742654574864</v>
       </c>
       <c r="R4">
-        <v>0.8830883804963164</v>
+        <v>0.926329577090754</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.8331199495994371</v>
+        <v>0.8754874294718509</v>
       </c>
       <c r="X4">
-        <v>-0.02860632066442943</v>
+        <v>-0.01802475032205957</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -718,55 +718,55 @@
         <v>1.701254279852589e-08</v>
       </c>
       <c r="B5">
-        <v>11.25270367345863</v>
+        <v>9.889748646887677</v>
       </c>
       <c r="C5">
-        <v>19.22655195984609</v>
+        <v>16.97090073883771</v>
       </c>
       <c r="D5">
-        <v>5247401114399.283</v>
+        <v>4999661869907.916</v>
       </c>
       <c r="E5">
-        <v>2.89782479141586e-08</v>
+        <v>2.484911943934153e-08</v>
       </c>
       <c r="F5">
-        <v>0.002207459251841128</v>
+        <v>0.002103241130265491</v>
       </c>
       <c r="G5">
-        <v>893.6050020918873</v>
+        <v>868.8730711377706</v>
       </c>
       <c r="H5">
-        <v>0.9545142223466413</v>
+        <v>0.9558812441775009</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
       </c>
       <c r="J5">
-        <v>2.235159305969474e-07</v>
+        <v>2.129633415017622e-07</v>
       </c>
       <c r="K5">
-        <v>2.702979723780495e-05</v>
+        <v>2.86151909943384e-05</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.000000072660745</v>
+        <v>1.000000076922557</v>
       </c>
       <c r="N5">
-        <v>1.103759318668627e-05</v>
+        <v>9.464839704294909e-06</v>
       </c>
       <c r="O5">
-        <v>4.030322290550902e-06</v>
+        <v>3.878162857865743e-06</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5584179135186971</v>
+        <v>0.557362778762996</v>
       </c>
       <c r="R5">
-        <v>0.8833373035980812</v>
+        <v>0.9265045191959397</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.8431580194137014</v>
+        <v>0.885628292545092</v>
       </c>
       <c r="X5">
-        <v>-0.5701235716912206</v>
+        <v>-0.3489435966084408</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -792,55 +792,55 @@
         <v>2.030917620904735e-08</v>
       </c>
       <c r="B6">
-        <v>9.426138257570628</v>
+        <v>8.284421307393451</v>
       </c>
       <c r="C6">
-        <v>16.20381418950014</v>
+        <v>14.31524647114532</v>
       </c>
       <c r="D6">
-        <v>3704563425891.075</v>
+        <v>3532738516323.901</v>
       </c>
       <c r="E6">
-        <v>2.045808106314087e-08</v>
+        <v>1.75582756642924e-08</v>
       </c>
       <c r="F6">
-        <v>0.001558423423373399</v>
+        <v>0.001486140691778895</v>
       </c>
       <c r="G6">
-        <v>1265.764233117929</v>
+        <v>1229.66122272691</v>
       </c>
       <c r="H6">
-        <v>0.9635358709718536</v>
+        <v>0.9646275257395026</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
       </c>
       <c r="J6">
-        <v>2.439675263111017e-07</v>
+        <v>2.32651834466617e-07</v>
       </c>
       <c r="K6">
-        <v>2.950301014870027e-05</v>
+        <v>3.126066970728086e-05</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.000000079309167</v>
+        <v>1.000000084034058</v>
       </c>
       <c r="N6">
-        <v>1.204752743570617e-05</v>
+        <v>1.033986555906131e-05</v>
       </c>
       <c r="O6">
-        <v>4.030322411349731e-06</v>
+        <v>3.878162947631245e-06</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.5569534627813896</v>
+        <v>0.5557387786071424</v>
       </c>
       <c r="R6">
-        <v>0.8836249172440213</v>
+        <v>0.926705833480828</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.85140430424915</v>
+        <v>0.8939259552389747</v>
       </c>
       <c r="X6">
-        <v>-6.406535891029317</v>
+        <v>-3.827189801052997</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -866,55 +866,55 @@
         <v>2.424462017082328e-08</v>
       </c>
       <c r="B7">
-        <v>7.896065250559206</v>
+        <v>6.939674490108821</v>
       </c>
       <c r="C7">
-        <v>13.67305331525635</v>
+        <v>12.09214083653659</v>
       </c>
       <c r="D7">
-        <v>2618558077341.056</v>
+        <v>2499728163741.681</v>
       </c>
       <c r="E7">
-        <v>1.446072512630824e-08</v>
+        <v>1.242404893030235e-08</v>
       </c>
       <c r="F7">
-        <v>0.001101566304593728</v>
+        <v>0.001051577331680906</v>
       </c>
       <c r="G7">
-        <v>1790.719833325662</v>
+        <v>1737.817586155024</v>
       </c>
       <c r="H7">
-        <v>0.9708316019467703</v>
+        <v>0.9716960107826244</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
       </c>
       <c r="J7">
-        <v>2.666170800749206e-07</v>
+        <v>2.545180226342733e-07</v>
       </c>
       <c r="K7">
-        <v>3.224202228142719e-05</v>
+        <v>3.419875823614841e-05</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.000000086672103</v>
+        <v>1.000000091932146</v>
       </c>
       <c r="N7">
-        <v>1.316600055588755e-05</v>
+        <v>1.131167584571154e-05</v>
       </c>
       <c r="O7">
-        <v>4.030322557465352e-06</v>
+        <v>3.878163056622215e-06</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.5552722025206613</v>
+        <v>0.5538833052377105</v>
       </c>
       <c r="R7">
-        <v>0.883955167578268</v>
+        <v>0.9269358848575884</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.8581716113891357</v>
+        <v>0.9006999015673807</v>
       </c>
       <c r="X7">
-        <v>-38.40716797434747</v>
+        <v>-22.50404648717085</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -940,55 +940,55 @@
         <v>2.89426612471675e-08</v>
       </c>
       <c r="B8">
-        <v>6.614357304913682</v>
+        <v>5.813210149716484</v>
       </c>
       <c r="C8">
-        <v>11.5546305241344</v>
+        <v>10.23161243996667</v>
       </c>
       <c r="D8">
-        <v>1853658339129.263</v>
+        <v>1771783247015.029</v>
       </c>
       <c r="E8">
-        <v>1.023664281200744e-08</v>
+        <v>8.806046222984214e-09</v>
       </c>
       <c r="F8">
-        <v>0.0007797908262120316</v>
+        <v>0.0007453478847172487</v>
       </c>
       <c r="G8">
-        <v>2529.648417308877</v>
+        <v>2451.807562169851</v>
       </c>
       <c r="H8">
-        <v>0.9767033859134761</v>
+        <v>0.9773818112105721</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
       </c>
       <c r="J8">
-        <v>2.918006236396353e-07</v>
+        <v>2.789119469967169e-07</v>
       </c>
       <c r="K8">
-        <v>3.528746997934159e-05</v>
+        <v>3.747649044963828e-05</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00000009485879</v>
+        <v>1.000000100743254</v>
       </c>
       <c r="N8">
-        <v>1.44096063611836e-05</v>
+        <v>1.239582761672098e-05</v>
       </c>
       <c r="O8">
-        <v>4.030322735148114e-06</v>
+        <v>3.878163189758399e-06</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.5533563292675019</v>
+        <v>0.5517808612458522</v>
       </c>
       <c r="R8">
-        <v>0.8843315761521711</v>
+        <v>0.9271966128505492</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.8637296446980265</v>
+        <v>0.9062251048161775</v>
       </c>
       <c r="X8">
-        <v>-94.83466440594962</v>
+        <v>-54.32916305548667</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1014,55 +1014,55 @@
         <v>3.455107294592218e-08</v>
       </c>
       <c r="B9">
-        <v>5.540699217748561</v>
+        <v>4.869596159435547</v>
       </c>
       <c r="C9">
-        <v>9.781862949132295</v>
+        <v>8.675077094888652</v>
       </c>
       <c r="D9">
-        <v>1314534907457.494</v>
+        <v>1258394396502.524</v>
       </c>
       <c r="E9">
-        <v>7.259387572943266e-09</v>
+        <v>6.254421493720984e-09</v>
       </c>
       <c r="F9">
-        <v>0.0005529941737010436</v>
+        <v>0.0005293771702342095</v>
       </c>
       <c r="G9">
-        <v>3567.120094877637</v>
+        <v>3452.074783256226</v>
       </c>
       <c r="H9">
-        <v>0.9814093626724717</v>
+        <v>0.9819368035738238</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
       </c>
       <c r="J9">
-        <v>3.199332803462298e-07</v>
+        <v>3.062697270025786e-07</v>
       </c>
       <c r="K9">
-        <v>3.868955413732154e-05</v>
+        <v>4.115246629847865e-05</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.000000104004178</v>
+        <v>1.000000110624909</v>
       </c>
       <c r="N9">
-        <v>1.579884434148679e-05</v>
+        <v>1.361170355384184e-05</v>
       </c>
       <c r="O9">
-        <v>4.030322952589684e-06</v>
+        <v>3.878163353556398e-06</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.5511922464616776</v>
+        <v>0.5494217666575311</v>
       </c>
       <c r="R9">
-        <v>0.8847568441330005</v>
+        <v>0.9274892395472877</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.8683086505206754</v>
+        <v>0.9107358192301803</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1085,55 +1085,55 @@
         <v>4.12462638290135e-08</v>
       </c>
       <c r="B10">
-        <v>4.641319845051846</v>
+        <v>4.079151818921587</v>
       </c>
       <c r="C10">
-        <v>8.298921143030981</v>
+        <v>7.37348888248366</v>
       </c>
       <c r="D10">
-        <v>934219892407.9812</v>
+        <v>895969829305.6914</v>
       </c>
       <c r="E10">
-        <v>5.159135933833835e-09</v>
+        <v>4.453113406821974e-09</v>
       </c>
       <c r="F10">
-        <v>0.0003930045178156932</v>
+        <v>0.0003769136084611635</v>
       </c>
       <c r="G10">
-        <v>5019.272145579591</v>
+        <v>4848.457416165035</v>
       </c>
       <c r="H10">
-        <v>0.9851677532359377</v>
+        <v>0.9855735382716397</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
       </c>
       <c r="J10">
-        <v>3.515338701000173e-07</v>
+        <v>3.37140906705436e-07</v>
       </c>
       <c r="K10">
-        <v>4.251101568307679e-05</v>
+        <v>4.530052622836334e-05</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.000000114276924</v>
+        <v>1.000000121775608</v>
       </c>
       <c r="N10">
-        <v>1.735933469772288e-05</v>
+        <v>1.498372732708645e-05</v>
       </c>
       <c r="O10">
-        <v>4.030323220685008e-06</v>
+        <v>3.878163556782029e-06</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.5487731101046436</v>
+        <v>0.5468049784848901</v>
       </c>
       <c r="R10">
-        <v>0.8852323517876519</v>
+        <v>0.9278139192761128</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.8721023671024063</v>
+        <v>0.914428847278636</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1156,55 +1156,55 @@
         <v>4.923882631706737e-08</v>
       </c>
       <c r="B11">
-        <v>3.88792985460516</v>
+        <v>3.417014269154515</v>
       </c>
       <c r="C11">
-        <v>7.059066306784097</v>
+        <v>6.285789321315229</v>
       </c>
       <c r="D11">
-        <v>665658768174.9713</v>
+        <v>639818951377.286</v>
       </c>
       <c r="E11">
-        <v>3.676033981369461e-09</v>
+        <v>3.180002559377332e-09</v>
       </c>
       <c r="F11">
-        <v>0.000280027117108471</v>
+        <v>0.0002691569089020873</v>
       </c>
       <c r="G11">
-        <v>7044.305743415357</v>
+        <v>6789.532498539113</v>
       </c>
       <c r="H11">
-        <v>0.9881608647483143</v>
+        <v>0.9884692852148141</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
       </c>
       <c r="J11">
-        <v>3.872580828456703e-07</v>
+        <v>3.722253387542943e-07</v>
       </c>
       <c r="K11">
-        <v>4.683114724782171e-05</v>
+        <v>5.001470716169388e-05</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.000000125890181</v>
+        <v>1.000000134448138</v>
       </c>
       <c r="N11">
-        <v>1.912345650393178e-05</v>
+        <v>1.654300284895331e-05</v>
       </c>
       <c r="O11">
-        <v>4.03032355415296e-06</v>
+        <v>3.878163811419312e-06</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.5461018170571347</v>
+        <v>0.5439411685798831</v>
       </c>
       <c r="R11">
-        <v>0.8857575697528501</v>
+        <v>0.9281693552665116</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.8752709660843417</v>
+        <v>0.9174668991585836</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1227,55 +1227,55 @@
         <v>5.878016072274909e-08</v>
       </c>
       <c r="B12">
-        <v>3.256831905356708</v>
+        <v>2.862356449065034</v>
       </c>
       <c r="C12">
-        <v>6.023171443553248</v>
+        <v>5.377605483959768</v>
       </c>
       <c r="D12">
-        <v>475780396451.2086</v>
+        <v>458525127142.4173</v>
       </c>
       <c r="E12">
-        <v>2.627449661362154e-09</v>
+        <v>2.278943245918157e-09</v>
       </c>
       <c r="F12">
-        <v>0.0002001497150863592</v>
+        <v>0.0001928908257717652</v>
       </c>
       <c r="G12">
-        <v>9855.605482666437</v>
+        <v>9474.009833725071</v>
       </c>
       <c r="H12">
-        <v>0.9905393135129131</v>
+        <v>0.9907702826172705</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
       </c>
       <c r="J12">
-        <v>4.27943217124085e-07</v>
+        <v>4.124228730421828e-07</v>
       </c>
       <c r="K12">
-        <v>5.175120340310963e-05</v>
+        <v>5.54159189995532e-05</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.000000139116138</v>
+        <v>1.000000148967524</v>
       </c>
       <c r="N12">
-        <v>2.113255697257184e-05</v>
+        <v>1.832952261268276e-05</v>
       </c>
       <c r="O12">
-        <v>4.03032397320687e-06</v>
+        <v>3.87816413412857e-06</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.5431941792824132</v>
+        <v>0.5408556234995993</v>
       </c>
       <c r="R12">
-        <v>0.8863294320479861</v>
+        <v>0.928552437167051</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.8779441471671023</v>
+        <v>0.9199821605969545</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1298,55 +1298,55 @@
         <v>7.017038286703823e-08</v>
       </c>
       <c r="B13">
-        <v>2.728175264578326</v>
+        <v>2.397731995287053</v>
       </c>
       <c r="C13">
-        <v>5.158479546989668</v>
+        <v>4.620155787617804</v>
       </c>
       <c r="D13">
-        <v>341334318009.801</v>
+        <v>329995292733.4424</v>
       </c>
       <c r="E13">
-        <v>1.884984637777325e-09</v>
+        <v>1.640129404132046e-09</v>
       </c>
       <c r="F13">
-        <v>0.0001435913858755726</v>
+        <v>0.0001388213224275025</v>
       </c>
       <c r="G13">
-        <v>13737.56940453641</v>
+        <v>13164.04100062807</v>
       </c>
       <c r="H13">
-        <v>0.9924263179080917</v>
+        <v>0.9925960225822256</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
       </c>
       <c r="J13">
-        <v>4.746684075151645e-07</v>
+        <v>4.589000631480191e-07</v>
       </c>
       <c r="K13">
-        <v>5.740168396973265e-05</v>
+        <v>6.166090774916707e-05</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.000000154305602</v>
+        <v>1.000000165755128</v>
       </c>
       <c r="N13">
-        <v>2.343992558710335e-05</v>
+        <v>2.039513236108231e-05</v>
       </c>
       <c r="O13">
-        <v>4.030324506076883e-06</v>
+        <v>3.87816454846778e-06</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.5400817742779785</v>
+        <v>0.5375902183767163</v>
       </c>
       <c r="R13">
-        <v>0.8869417707072927</v>
+        <v>0.9289579922185979</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.8802243557019215</v>
+        <v>0.9220800082221503</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1369,55 +1369,55 @@
         <v>8.376776400682913e-08</v>
       </c>
       <c r="B14">
-        <v>2.28533141732466</v>
+        <v>2.008526479328296</v>
       </c>
       <c r="C14">
-        <v>4.437559474201509</v>
+        <v>3.989328894637649</v>
       </c>
       <c r="D14">
-        <v>245968420121.9418</v>
+        <v>238686518956.3706</v>
       </c>
       <c r="E14">
-        <v>1.358336003281411e-09</v>
+        <v>1.186310189056195e-09</v>
       </c>
       <c r="F14">
-        <v>0.0001034731770683561</v>
+        <v>0.0001004098511002262</v>
       </c>
       <c r="G14">
-        <v>19063.84519396865</v>
+        <v>18199.90329806331</v>
       </c>
       <c r="H14">
-        <v>0.9939218517417177</v>
+        <v>0.994043366235932</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
       </c>
       <c r="J14">
-        <v>5.288353689799663e-07</v>
+        <v>5.131791847923322e-07</v>
       </c>
       <c r="K14">
-        <v>6.395209843670748e-05</v>
+        <v>6.895421664404133e-05</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.000000171914243</v>
+        <v>1.000000185360797</v>
       </c>
       <c r="N14">
-        <v>2.611478139362527e-05</v>
+        <v>2.28074873796999e-05</v>
       </c>
       <c r="O14">
-        <v>4.030325192864988e-06</v>
+        <v>3.87816508831579e-06</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.5368136311256575</v>
+        <v>0.5342033557678189</v>
       </c>
       <c r="R14">
-        <v>0.8875849774442346</v>
+        <v>0.9293787881773155</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.8821901043595043</v>
+        <v>0.9238428191080499</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1440,55 +1440,55 @@
         <v>9.999999999999992e-08</v>
       </c>
       <c r="B15">
-        <v>1.914371028438446</v>
+        <v>1.682497721218402</v>
       </c>
       <c r="C15">
-        <v>3.837426590726809</v>
+        <v>3.464906961430346</v>
       </c>
       <c r="D15">
-        <v>178177215889.8146</v>
+        <v>173658701263.5648</v>
       </c>
       <c r="E15">
-        <v>9.839658570299123e-10</v>
+        <v>8.631115306721192e-10</v>
       </c>
       <c r="F15">
-        <v>7.495499869525261e-05</v>
+        <v>7.305416498751032e-05</v>
       </c>
       <c r="G15">
-        <v>26317.07909674321</v>
+        <v>25014.99511368697</v>
       </c>
       <c r="H15">
-        <v>0.9951064854837136</v>
+        <v>0.9951903253702359</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
       </c>
       <c r="J15">
-        <v>5.922759249433472e-07</v>
+        <v>5.772560054981633e-07</v>
       </c>
       <c r="K15">
-        <v>7.162396933988695e-05</v>
+        <v>7.756401046995275e-05</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.000000192537552</v>
+        <v>1.000000208505404</v>
       </c>
       <c r="N15">
-        <v>2.924758291873752e-05</v>
+        <v>2.565528659464844e-05</v>
       </c>
       <c r="O15">
-        <v>4.030326091503418e-06</v>
+        <v>3.878165803203508e-06</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.5334555482425322</v>
+        <v>0.5307664423860087</v>
       </c>
       <c r="R15">
-        <v>0.8882461301162163</v>
+        <v>0.9298059662984529</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.8838994847844575</v>
+        <v>0.9253339021317439</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1511,55 +1511,55 @@
         <v>1.193776641714435e-07</v>
       </c>
       <c r="B16">
-        <v>1.603625805317427</v>
+        <v>1.40939072053051</v>
       </c>
       <c r="C16">
-        <v>3.338800876414781</v>
+        <v>3.029909623528353</v>
       </c>
       <c r="D16">
-        <v>129861235338.4022</v>
+        <v>127207163518.9409</v>
       </c>
       <c r="E16">
-        <v>7.17145686032792e-10</v>
+        <v>6.322399558352993e-10</v>
       </c>
       <c r="F16">
-        <v>5.46295926600021e-05</v>
+        <v>5.351308655246561e-05</v>
       </c>
       <c r="G16">
-        <v>36108.57290545961</v>
+        <v>34149.58280168299</v>
       </c>
       <c r="H16">
-        <v>0.9960448091574338</v>
+        <v>0.9960994144090446</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
       </c>
       <c r="J16">
-        <v>6.673938651263413e-07</v>
+        <v>6.537538343250226e-07</v>
       </c>
       <c r="K16">
-        <v>8.070798713962593e-05</v>
+        <v>8.784277472626336e-05</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.000000216956955</v>
+        <v>1.000000236136491</v>
       </c>
       <c r="N16">
-        <v>3.295703334827681e-05</v>
+        <v>2.905511908444257e-05</v>
       </c>
       <c r="O16">
-        <v>4.030327287058703e-06</v>
+        <v>3.878166766694492e-06</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.5300855552121969</v>
+        <v>0.527355378372762</v>
       </c>
       <c r="R16">
-        <v>0.8889098788022808</v>
+        <v>0.9302300957012246</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.8853940705897754</v>
+        <v>0.9266016535936593</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1582,55 +1582,55 @@
         <v>1.425102670302997e-07</v>
       </c>
       <c r="B17">
-        <v>1.343321480150916</v>
+        <v>1.180615092708147</v>
       </c>
       <c r="C17">
-        <v>2.925480192729379</v>
+        <v>2.670039816145711</v>
       </c>
       <c r="D17">
-        <v>95315404695.22704</v>
+        <v>93902370319.9704</v>
       </c>
       <c r="E17">
-        <v>5.263697908889218e-10</v>
+        <v>4.66709804869504e-10</v>
       </c>
       <c r="F17">
-        <v>4.009696749884294e-05</v>
+        <v>3.950253689656431e-05</v>
       </c>
       <c r="G17">
-        <v>49195.65624049174</v>
+        <v>46261.57517382113</v>
       </c>
       <c r="H17">
-        <v>0.9967883929056572</v>
+        <v>0.996820536566581</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
       </c>
       <c r="J17">
-        <v>7.573498533883871e-07</v>
+        <v>7.461222729111786e-07</v>
       </c>
       <c r="K17">
-        <v>9.15863711391719e-05</v>
+        <v>0.0001002540211565313</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.000000246199922</v>
+        <v>1.000000269500057</v>
       </c>
       <c r="N17">
-        <v>3.739921158806063e-05</v>
+        <v>3.316029727515358e-05</v>
       </c>
       <c r="O17">
-        <v>4.030328906391491e-06</v>
+        <v>3.878168089665191e-06</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0.5267840272158575</v>
+        <v>0.5240359191068635</v>
       </c>
       <c r="R17">
-        <v>0.8895603882786455</v>
+        <v>0.9306429930845589</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.8867034698248035</v>
+        <v>0.9276840477184789</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1653,55 +1653,55 @@
         <v>1.701254279852587e-07</v>
       </c>
       <c r="B18">
-        <v>1.125270367345864</v>
+        <v>0.9889748646887685</v>
       </c>
       <c r="C18">
-        <v>2.583811033438468</v>
+        <v>2.37321694199054</v>
       </c>
       <c r="D18">
-        <v>70518587652.00418</v>
+        <v>69915453731.5513</v>
       </c>
       <c r="E18">
-        <v>3.894318484494279e-10</v>
+        <v>3.47490991518407e-10</v>
       </c>
       <c r="F18">
-        <v>2.966552496092282e-05</v>
+        <v>2.941180058884281e-05</v>
       </c>
       <c r="G18">
-        <v>66494.58022258725</v>
+        <v>62133.2099229003</v>
       </c>
       <c r="H18">
-        <v>0.9973782874009322</v>
+        <v>0.997393411611376</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
       </c>
       <c r="J18">
-        <v>8.662990225854514e-07</v>
+        <v>8.58889709053041e-07</v>
       </c>
       <c r="K18">
-        <v>0.0001047616018476007</v>
+        <v>0.0001154062144888966</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.000000281617209</v>
+        <v>1.000000310231759</v>
       </c>
       <c r="N18">
-        <v>4.277930509823243e-05</v>
+        <v>3.817207864287883e-05</v>
       </c>
       <c r="O18">
-        <v>4.030331141431586e-06</v>
+        <v>3.878169941486203e-06</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>0.5236175155713554</v>
+        <v>0.5208429342679713</v>
       </c>
       <c r="R18">
-        <v>0.8901845249384785</v>
+        <v>0.9310403067903079</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.8878507169539521</v>
+        <v>0.9286134679372874</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1724,55 +1724,55 @@
         <v>2.030917620904733e-07</v>
       </c>
       <c r="B19">
-        <v>0.9426138257570638</v>
+        <v>0.828442130739346</v>
       </c>
       <c r="C19">
-        <v>2.302243418792178</v>
+        <v>2.129187003573443</v>
       </c>
       <c r="D19">
-        <v>52634562869.04655</v>
+        <v>52544403976.15022</v>
       </c>
       <c r="E19">
-        <v>2.906691099880226e-10</v>
+        <v>2.611540948661027e-10</v>
       </c>
       <c r="F19">
-        <v>2.214213288423091e-05</v>
+        <v>2.21042051409689e-05</v>
       </c>
       <c r="G19">
-        <v>89087.92299607604</v>
+        <v>82674.29516431596</v>
       </c>
       <c r="H19">
-        <v>0.9978470953842637</v>
+        <v>0.9978495797597896</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
       </c>
       <c r="J19">
-        <v>9.99691520620781e-07</v>
+        <v>9.979791271700889e-07</v>
       </c>
       <c r="K19">
-        <v>0.000120892766034913</v>
+        <v>0.0001340952068602799</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.000000324980554</v>
+        <v>1.000000360470986</v>
       </c>
       <c r="N19">
-        <v>4.93664513635462e-05</v>
+        <v>4.43537014412355e-05</v>
       </c>
       <c r="O19">
-        <v>4.030334286355358e-06</v>
+        <v>3.878172583970041e-06</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0.52061675287687</v>
+        <v>0.5177557105105189</v>
       </c>
       <c r="R19">
-        <v>0.890776200587412</v>
+        <v>0.9314245992711024</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.8888584443935794</v>
+        <v>0.9294216449606</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1795,55 +1795,55 @@
         <v>2.424462017082326e-07</v>
       </c>
       <c r="B20">
-        <v>0.7896065250559212</v>
+        <v>0.6939674490108827</v>
       </c>
       <c r="C20">
-        <v>2.070960585701252</v>
+        <v>1.929202873132804</v>
       </c>
       <c r="D20">
-        <v>39661445359.0413</v>
+        <v>39881132884.01536</v>
       </c>
       <c r="E20">
-        <v>2.190263658507696e-10</v>
+        <v>1.982156114148177e-10</v>
       </c>
       <c r="F20">
-        <v>1.668464494908921e-05</v>
+        <v>1.677706236657752e-05</v>
       </c>
       <c r="G20">
-        <v>118228.265292929</v>
+        <v>108925.4805321349</v>
       </c>
       <c r="H20">
-        <v>0.9982206611634201</v>
+        <v>0.9982140306534183</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
       </c>
       <c r="J20">
-        <v>1.164646951133774e-06</v>
+        <v>1.171098012204469e-06</v>
       </c>
       <c r="K20">
-        <v>0.0001408408378709252</v>
+        <v>0.0001573566279342195</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.000000378604403</v>
+        <v>1.000000423001688</v>
       </c>
       <c r="N20">
-        <v>5.751222840536382e-05</v>
+        <v>5.204771340161369e-05</v>
       </c>
       <c r="O20">
-        <v>4.030338797233301e-06</v>
+        <v>3.878176425962123e-06</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0.5177516319942075</v>
+        <v>0.5146743298970249</v>
       </c>
       <c r="R20">
-        <v>0.891341322021843</v>
+        <v>0.9318083015271139</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.8897553237909211</v>
+        <v>0.9301441204636961</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1866,55 +1866,55 @@
         <v>2.894266124716747e-07</v>
       </c>
       <c r="B21">
-        <v>0.6614357304913688</v>
+        <v>0.581321014971649</v>
       </c>
       <c r="C21">
-        <v>1.8815774525414</v>
+        <v>1.76577033528459</v>
       </c>
       <c r="D21">
-        <v>30185315993.75608</v>
+        <v>30577412079.37641</v>
       </c>
       <c r="E21">
-        <v>1.666953890439186e-10</v>
+        <v>1.519746304204334e-10</v>
       </c>
       <c r="F21">
-        <v>1.26982583582793e-05</v>
+        <v>1.286320403575728e-05</v>
       </c>
       <c r="G21">
-        <v>155343.8726558204</v>
+        <v>142067.9929446107</v>
       </c>
       <c r="H21">
-        <v>0.99851943126995</v>
+        <v>0.9985065123517917</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
       </c>
       <c r="J21">
-        <v>1.370415471600068e-06</v>
+        <v>1.388216661496476e-06</v>
       </c>
       <c r="K21">
-        <v>0.0001657244395510061</v>
+        <v>0.0001865301541106584</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.000000445495805</v>
+        <v>1.000000501425145</v>
       </c>
       <c r="N21">
-        <v>6.767342458260088e-05</v>
+        <v>6.169722959473216e-05</v>
       </c>
       <c r="O21">
-        <v>4.030345388014162e-06</v>
+        <v>3.878182111320389e-06</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.5149089083557691</v>
+        <v>0.5114049727272655</v>
       </c>
       <c r="R21">
-        <v>0.8919022112545636</v>
+        <v>0.9322155619085596</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.8905816887303176</v>
+        <v>0.9308233094813816</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1937,55 +1937,55 @@
         <v>3.455107294592214e-07</v>
       </c>
       <c r="B22">
-        <v>0.5540699217748566</v>
+        <v>0.4869596159435552</v>
       </c>
       <c r="C22">
-        <v>1.726903871456811</v>
+        <v>1.632456107396091</v>
       </c>
       <c r="D22">
-        <v>23206984524.91443</v>
+        <v>23680177082.16037</v>
       </c>
       <c r="E22">
-        <v>1.281582513403874e-10</v>
+        <v>1.176942689266701e-10</v>
       </c>
       <c r="F22">
-        <v>9.762637080721974e-06</v>
+        <v>9.961698152216692e-06</v>
       </c>
       <c r="G22">
-        <v>202055.7164062241</v>
+        <v>183447.5962103315</v>
       </c>
       <c r="H22">
-        <v>0.9987595403389379</v>
+        <v>0.9987425760380491</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
       </c>
       <c r="J22">
-        <v>1.628943452303202e-06</v>
+        <v>1.662157759701773e-06</v>
       </c>
       <c r="K22">
-        <v>0.0001969882464753807</v>
+        <v>0.0002233387277884833</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.000000529538297</v>
+        <v>1.000000600372924</v>
       </c>
       <c r="N22">
-        <v>8.043997178465364e-05</v>
+        <v>7.387213521298476e-05</v>
       </c>
       <c r="O22">
-        <v>4.030355185288585e-06</v>
+        <v>3.878190660951269e-06</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.5118809175119104</v>
+        <v>0.5076631979275652</v>
       </c>
       <c r="R22">
-        <v>0.8924998594141156</v>
+        <v>0.9326818626621735</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.8913927493410088</v>
+        <v>0.931509086139185</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2008,55 +2008,55 @@
         <v>4.124626382901346e-07</v>
       </c>
       <c r="B23">
-        <v>0.464131984505185</v>
+        <v>0.4079151818921591</v>
       </c>
       <c r="C23">
-        <v>1.600768593423326</v>
+        <v>1.523751960488155</v>
       </c>
       <c r="D23">
-        <v>18020051490.3535</v>
+        <v>18515465415.37505</v>
       </c>
       <c r="E23">
-        <v>9.951393235032819e-11</v>
+        <v>9.202482558888045e-11</v>
       </c>
       <c r="F23">
-        <v>7.580615339635258e-06</v>
+        <v>7.789024422234032e-06</v>
       </c>
       <c r="G23">
-        <v>260215.8981798645</v>
+        <v>234618.5454214955</v>
       </c>
       <c r="H23">
-        <v>0.9989536740172816</v>
+        <v>0.9989344095293275</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
       </c>
       <c r="J23">
-        <v>1.955573270320348e-06</v>
+        <v>2.009336614450373e-06</v>
       </c>
       <c r="K23">
-        <v>0.0002364876133851377</v>
+        <v>0.0002699880204215285</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.000000635719391</v>
+        <v>1.000000725774248</v>
       </c>
       <c r="N23">
-        <v>9.656950243728383e-05</v>
+        <v>8.930198424589444e-05</v>
       </c>
       <c r="O23">
-        <v>4.030369978270251e-06</v>
+        <v>3.878203702619719e-06</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>0.5083740749720167</v>
+        <v>0.5031020355378298</v>
       </c>
       <c r="R23">
-        <v>0.89319228591177</v>
+        <v>0.9332505547871413</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.892257715615457</v>
+        <v>0.9322560918892103</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2079,55 +2079,55 @@
         <v>4.923882631706733e-07</v>
       </c>
       <c r="B24">
-        <v>0.3887929854605164</v>
+        <v>0.3417014269154518</v>
       </c>
       <c r="C24">
-        <v>1.497897005972859</v>
+        <v>1.434984228122851</v>
       </c>
       <c r="D24">
-        <v>14124931435.91274</v>
+        <v>14606440928.06469</v>
       </c>
       <c r="E24">
-        <v>7.800352136168453e-11</v>
+        <v>7.259634844303e-11</v>
       </c>
       <c r="F24">
-        <v>5.942029187413598e-06</v>
+        <v>6.144588999428621e-06</v>
       </c>
       <c r="G24">
-        <v>331973.567807038</v>
+        <v>297407.9438619875</v>
       </c>
       <c r="H24">
-        <v>0.9991117564127314</v>
+        <v>0.9990915073672226</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
       </c>
       <c r="J24">
-        <v>2.369928166205118e-06</v>
+        <v>2.450717436788384e-06</v>
       </c>
       <c r="K24">
-        <v>0.0002865955801432353</v>
+        <v>0.0003292949248088069</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.000000770418226</v>
+        <v>1.000000885201411</v>
       </c>
       <c r="N24">
-        <v>0.0001170310452162409</v>
+        <v>0.0001089184999453562</v>
       </c>
       <c r="O24">
-        <v>4.030392623577345e-06</v>
+        <v>3.878223844063728e-06</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.5040426404214914</v>
+        <v>0.4973651110309316</v>
       </c>
       <c r="R24">
-        <v>0.8940479241099574</v>
+        <v>0.9339662823135051</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.8932537917746559</v>
+        <v>0.9331177808267608</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2150,55 +2150,55 @@
         <v>5.878016072274904e-07</v>
       </c>
       <c r="B25">
-        <v>0.3256831905356711</v>
+        <v>0.2862356449065036</v>
       </c>
       <c r="C25">
-        <v>1.413830277942435</v>
+        <v>1.362251758681338</v>
       </c>
       <c r="D25">
-        <v>11168082072.01462</v>
+        <v>11615330702.71645</v>
       </c>
       <c r="E25">
-        <v>6.167461643449356e-11</v>
+        <v>5.773005204541321e-11</v>
       </c>
       <c r="F25">
-        <v>4.698151629296968e-06</v>
+        <v>4.886298696043371e-06</v>
       </c>
       <c r="G25">
-        <v>419866.5315649734</v>
+        <v>373994.6519595314</v>
       </c>
       <c r="H25">
-        <v>0.9992415034635072</v>
+        <v>0.9992212173675322</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
       </c>
       <c r="J25">
-        <v>2.897064738739799e-06</v>
+        <v>3.013083606536514e-06</v>
       </c>
       <c r="K25">
-        <v>0.0003503422430061038</v>
+        <v>0.0004048582365159729</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.000000941780223</v>
+        <v>1.000001088328593</v>
       </c>
       <c r="N25">
-        <v>0.000143061937179614</v>
+        <v>0.0001339120298845937</v>
       </c>
       <c r="O25">
-        <v>4.030427703220027e-06</v>
+        <v>3.878255281786919e-06</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>0.4985456849695415</v>
+        <v>0.4901552726883197</v>
       </c>
       <c r="R25">
-        <v>0.8951344369909705</v>
+        <v>0.934866471127959</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.8944554806208174</v>
+        <v>0.9341384133565681</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2221,55 +2221,55 @@
         <v>7.017038286703817e-07</v>
       </c>
       <c r="B26">
-        <v>0.2728175264578329</v>
+        <v>0.2397731995287056</v>
       </c>
       <c r="C26">
-        <v>1.344867416700427</v>
+        <v>1.302370937912051</v>
       </c>
       <c r="D26">
-        <v>8898928420.893532</v>
+        <v>9302203186.646492</v>
       </c>
       <c r="E26">
-        <v>4.914344231154244e-11</v>
+        <v>4.623343819014293e-11</v>
       </c>
       <c r="F26">
-        <v>3.743571616865469e-06</v>
+        <v>3.913219904329643e-06</v>
       </c>
       <c r="G26">
-        <v>526929.0483110677</v>
+        <v>466993.8375237068</v>
       </c>
       <c r="H26">
-        <v>0.9993488755955847</v>
+        <v>0.9993291934378294</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
       </c>
       <c r="J26">
-        <v>3.569012640389075e-06</v>
+        <v>3.730750398964927e-06</v>
       </c>
       <c r="K26">
-        <v>0.000431600950103362</v>
+        <v>0.0005012887873836362</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.000001160217608</v>
+        <v>1.000001347550504</v>
       </c>
       <c r="N26">
-        <v>0.0001762438565231004</v>
+        <v>0.0001658076655537692</v>
       </c>
       <c r="O26">
-        <v>4.030482599861916e-06</v>
+        <v>3.878304800203045e-06</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>0.4916153814434876</v>
+        <v>0.4813003997817135</v>
       </c>
       <c r="R26">
-        <v>0.8965052872321533</v>
+        <v>0.9359731406234266</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.8959215507609491</v>
+        <v>0.9353452836986811</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2292,55 +2292,55 @@
         <v>8.376776400682906e-07</v>
       </c>
       <c r="B27">
-        <v>0.2285331417324662</v>
+        <v>0.2008526479328298</v>
       </c>
       <c r="C27">
-        <v>1.288008523043335</v>
+        <v>1.252807870262783</v>
       </c>
       <c r="D27">
-        <v>7139271560.37884</v>
+        <v>7495705602.917683</v>
       </c>
       <c r="E27">
-        <v>3.942591326503611e-11</v>
+        <v>3.725485615939734e-11</v>
       </c>
       <c r="F27">
-        <v>3.003325020097814e-06</v>
+        <v>3.153268507877778e-06</v>
       </c>
       <c r="G27">
-        <v>656804.2473454978</v>
+        <v>579541.3792487237</v>
       </c>
       <c r="H27">
-        <v>0.9994384535574228</v>
+        <v>0.9994197735381227</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
       </c>
       <c r="J27">
-        <v>4.426852416392199e-06</v>
+        <v>4.647866687827727e-06</v>
       </c>
       <c r="K27">
-        <v>0.0005353395746656558</v>
+        <v>0.0006245187178719815</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.000001439084878</v>
+        <v>1.000001678813758</v>
       </c>
       <c r="N27">
-        <v>0.0002186054297746933</v>
+        <v>0.0002065675381359357</v>
       </c>
       <c r="O27">
-        <v>4.030569264297892e-06</v>
+        <v>3.878383420335661e-06</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0.4831172460540379</v>
+        <v>0.4707956549538924</v>
       </c>
       <c r="R27">
-        <v>0.8981878479592631</v>
+        <v>0.9372875959347504</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.8976834737684755</v>
+        <v>0.9367437568691998</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2363,55 +2363,55 @@
         <v>9.999999999999983e-07</v>
       </c>
       <c r="B28">
-        <v>0.1914371028438448</v>
+        <v>0.1682497721218404</v>
       </c>
       <c r="C28">
-        <v>1.240881132967967</v>
+        <v>1.211587381972467</v>
       </c>
       <c r="D28">
-        <v>5761588926.72278</v>
+        <v>6072390790.366426</v>
       </c>
       <c r="E28">
-        <v>3.181779868893388e-11</v>
+        <v>3.018075381064759e-11</v>
       </c>
       <c r="F28">
-        <v>2.423766070922061e-06</v>
+        <v>2.554513165423179e-06</v>
       </c>
       <c r="G28">
-        <v>813856.0288571173</v>
+        <v>715380.764105132</v>
       </c>
       <c r="H28">
-        <v>0.9995137517000311</v>
+        <v>0.9994962921663784</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
       </c>
       <c r="J28">
-        <v>5.523497736912858e-06</v>
+        <v>5.821456062697208e-06</v>
       </c>
       <c r="K28">
-        <v>0.0006679569705545995</v>
+        <v>0.0007822101020980245</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.000001795583254</v>
+        <v>1.000002102715328</v>
       </c>
       <c r="N28">
-        <v>0.0002727596231051777</v>
+        <v>0.0002587259764543511</v>
       </c>
       <c r="O28">
-        <v>4.030707135585925e-06</v>
+        <v>3.878509130900994e-06</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>0.4730829229218373</v>
+        <v>0.4588085484180427</v>
       </c>
       <c r="R28">
-        <v>0.9001768514374791</v>
+        <v>0.9387896924883562</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.8997391419737962</v>
+        <v>0.9383168167661265</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2434,55 +2434,55 @@
         <v>1.193776641714434e-06</v>
       </c>
       <c r="B29">
-        <v>0.1603625805317428</v>
+        <v>0.1409390720530511</v>
       </c>
       <c r="C29">
-        <v>1.201643082985471</v>
+        <v>1.177183402235007</v>
       </c>
       <c r="D29">
-        <v>4673739494.159452</v>
+        <v>4942264956.586769</v>
       </c>
       <c r="E29">
-        <v>2.581025898254616e-11</v>
+        <v>2.456384759662929e-11</v>
       </c>
       <c r="F29">
-        <v>1.966133189011728e-06</v>
+        <v>2.079095587629116e-06</v>
       </c>
       <c r="G29">
-        <v>1003287.386827933</v>
+        <v>878963.714352823</v>
       </c>
       <c r="H29">
-        <v>0.9995774753102675</v>
+        <v>0.9995613312173378</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
       </c>
       <c r="J29">
-        <v>6.927350822662568e-06</v>
+        <v>7.325355479399704e-06</v>
       </c>
       <c r="K29">
-        <v>0.000837725023141003</v>
+        <v>0.0009842841714742319</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.000002251948987</v>
+        <v>1.000002645925192</v>
       </c>
       <c r="N29">
-        <v>0.000342084253403324</v>
+        <v>0.0003255645544466764</v>
       </c>
       <c r="O29">
-        <v>4.030927981765611e-06</v>
+        <v>3.878711421756133e-06</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>0.4617053664002762</v>
+        <v>0.4456472636818296</v>
       </c>
       <c r="R29">
-        <v>0.9024351781422437</v>
+        <v>0.940441641438567</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9020538769985955</v>
+        <v>0.9400290990485524</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2505,55 +2505,55 @@
         <v>1.425102670302995e-06</v>
       </c>
       <c r="B30">
-        <v>0.1343321480150917</v>
+        <v>0.1180615092708148</v>
       </c>
       <c r="C30">
-        <v>1.168870436315814</v>
+        <v>1.148407561097819</v>
       </c>
       <c r="D30">
-        <v>3808310134.883715</v>
+        <v>4038823369.912493</v>
       </c>
       <c r="E30">
-        <v>2.103101188888182e-11</v>
+        <v>2.007359836020427e-11</v>
       </c>
       <c r="F30">
-        <v>1.602067243927812e-06</v>
+        <v>1.69903878512366e-06</v>
       </c>
       <c r="G30">
-        <v>1231282.043145082</v>
+        <v>1075578.49543973</v>
       </c>
       <c r="H30">
-        <v>0.9996317249068477</v>
+        <v>0.9996169127037465</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
       </c>
       <c r="J30">
-        <v>8.727015715235811e-06</v>
+        <v>9.255253320214223e-06</v>
       </c>
       <c r="K30">
-        <v>0.001055358625418635</v>
+        <v>0.001243598262458345</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.000002836985552</v>
+        <v>1.000003343006082</v>
       </c>
       <c r="N30">
-        <v>0.000430954737504989</v>
+        <v>0.0004113360002747047</v>
       </c>
       <c r="O30">
-        <v>4.031283937851207e-06</v>
+        <v>3.879038816584552e-06</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0.4493007429177017</v>
+        <v>0.4317060148692154</v>
       </c>
       <c r="R30">
-        <v>0.9049011779879758</v>
+        <v>0.9421946860745644</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9045679254223586</v>
+        <v>0.9418337432597317</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2576,55 +2576,55 @@
         <v>1.701254279852586e-06</v>
       </c>
       <c r="B31">
-        <v>0.1125270367345865</v>
+        <v>0.09889748646887693</v>
       </c>
       <c r="C31">
-        <v>1.141449043185301</v>
+        <v>1.124314724943676</v>
       </c>
       <c r="D31">
-        <v>3115296488.808647</v>
+        <v>3312254043.895782</v>
       </c>
       <c r="E31">
-        <v>1.720391332979687e-11</v>
+        <v>1.646243255880906e-11</v>
       </c>
       <c r="F31">
-        <v>1.310532567746365e-06</v>
+        <v>1.393388017085667e-06</v>
       </c>
       <c r="G31">
-        <v>1505187.034574341</v>
+        <v>1311515.211691891</v>
       </c>
       <c r="H31">
-        <v>0.9996781511667245</v>
+        <v>0.9996646402685209</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
       </c>
       <c r="J31">
-        <v>1.103731924572205e-05</v>
+        <v>1.173512872265724e-05</v>
       </c>
       <c r="K31">
-        <v>0.001334743794162758</v>
+        <v>0.001576811048201949</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.000003588020952</v>
+        <v>1.000004238739377</v>
       </c>
       <c r="N31">
-        <v>0.0005450414177660711</v>
+        <v>0.0005215503827371097</v>
       </c>
       <c r="O31">
-        <v>4.03186086440267e-06</v>
+        <v>3.879571399494274e-06</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.4362528406666392</v>
+        <v>0.4174062644680824</v>
       </c>
       <c r="R31">
-        <v>0.9074994743515238</v>
+        <v>0.9439963445092063</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9072073967045057</v>
+        <v>0.9436797661485944</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2647,55 +2647,55 @@
         <v>2.030917620904732e-06</v>
       </c>
       <c r="B32">
-        <v>0.09426138257570645</v>
+        <v>0.08284421307393466</v>
       </c>
       <c r="C32">
-        <v>1.118486880239707</v>
+        <v>1.104135232560786</v>
       </c>
       <c r="D32">
-        <v>2557117441.867466</v>
+        <v>2724801889.482008</v>
       </c>
       <c r="E32">
-        <v>1.412142536096889e-11</v>
+        <v>1.35427013590279e-11</v>
       </c>
       <c r="F32">
-        <v>1.075719662368685e-06</v>
+        <v>1.146260598197061e-06</v>
       </c>
       <c r="G32">
-        <v>1833746.001272935</v>
+        <v>1594270.607461711</v>
       </c>
       <c r="H32">
-        <v>0.999718067529352</v>
+        <v>0.9997058001785698</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
       </c>
       <c r="J32">
-        <v>1.400701721778837e-05</v>
+        <v>1.492553543147547e-05</v>
       </c>
       <c r="K32">
-        <v>0.001693869579193356</v>
+        <v>0.00200549561277851</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.000004553412847</v>
+        <v>1.000005391117239</v>
       </c>
       <c r="N32">
-        <v>0.0006916901063649274</v>
+        <v>0.0006633432747791507</v>
       </c>
       <c r="O32">
-        <v>4.032800568437148e-06</v>
+        <v>3.880441669540723e-06</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0.4229580401343987</v>
+        <v>0.4031481993684019</v>
       </c>
       <c r="R32">
-        <v>0.9101517388014795</v>
+        <v>0.9457964424801469</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.9098951374730946</v>
+        <v>0.94551818933566</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2718,55 +2718,55 @@
         <v>2.424462017082324e-06</v>
       </c>
       <c r="B33">
-        <v>0.07896065250559219</v>
+        <v>0.06939674490108833</v>
       </c>
       <c r="C33">
-        <v>1.099253568339197</v>
+        <v>1.087231711966821</v>
       </c>
       <c r="D33">
-        <v>2105205943.436797</v>
+        <v>2247562088.182702</v>
       </c>
       <c r="E33">
-        <v>1.162578930203537e-11</v>
+        <v>1.117074318820214e-11</v>
       </c>
       <c r="F33">
-        <v>8.856110359313537e-07</v>
+        <v>9.454969455321023e-07</v>
       </c>
       <c r="G33">
-        <v>2227384.87815338</v>
+        <v>1932792.685193297</v>
       </c>
       <c r="H33">
-        <v>0.9997525303314792</v>
+        <v>0.9997414335099856</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
       </c>
       <c r="J33">
-        <v>1.782872739846909e-05</v>
+        <v>1.903432388943679e-05</v>
       </c>
       <c r="K33">
-        <v>0.002156029260651271</v>
+        <v>0.00255758014362216</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.000005795777582</v>
+        <v>1.00000687521544</v>
       </c>
       <c r="N33">
-        <v>0.0008804125931206305</v>
+        <v>0.0008459522809077436</v>
       </c>
       <c r="O33">
-        <v>4.034337809725977e-06</v>
+        <v>3.881869302896915e-06</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>0.4097827381778509</v>
+        <v>0.3892782967905017</v>
       </c>
       <c r="R33">
-        <v>0.912785103577153</v>
+        <v>0.9475512031244496</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.91255921695014</v>
+        <v>0.9473061981357488</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2789,55 +2789,55 @@
         <v>2.894266124716744e-06</v>
       </c>
       <c r="B34">
-        <v>0.06614357304913694</v>
+        <v>0.05813210149716495</v>
       </c>
       <c r="C34">
-        <v>1.083142472907723</v>
+        <v>1.073072051722727</v>
       </c>
       <c r="D34">
-        <v>1737637627.769068</v>
+        <v>1858212569.365624</v>
       </c>
       <c r="E34">
-        <v>9.595930035591899e-12</v>
+        <v>9.23561378375825e-12</v>
       </c>
       <c r="F34">
-        <v>7.309836191558635e-07</v>
+        <v>7.817066846438716e-07</v>
       </c>
       <c r="G34">
-        <v>2698551.072371762</v>
+        <v>2337768.905007635</v>
       </c>
       <c r="H34">
-        <v>0.9997823963938461</v>
+        <v>0.9997723891401946</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
       </c>
       <c r="J34">
-        <v>2.275179882167663e-05</v>
+        <v>2.43305496327202e-05</v>
       </c>
       <c r="K34">
-        <v>0.002751376634778656</v>
+        <v>0.003269216757343929</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.000007396173749</v>
+        <v>1.00000878821709</v>
       </c>
       <c r="N34">
-        <v>0.0011235221533799</v>
+        <v>0.001081335175186395</v>
       </c>
       <c r="O34">
-        <v>4.036862005818583e-06</v>
+        <v>3.884219160761535e-06</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>0.3970367135789999</v>
+        <v>0.3760722646904778</v>
       </c>
       <c r="R34">
-        <v>0.9153375063156257</v>
+        <v>0.9492254623426242</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9151383255734036</v>
+        <v>0.9490094083189912</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2860,55 +2860,55 @@
         <v>3.455107294592212e-06</v>
       </c>
       <c r="B35">
-        <v>0.0554069921774857</v>
+        <v>0.04869596159435555</v>
       </c>
       <c r="C35">
-        <v>1.06964658922001</v>
+        <v>1.061210823727119</v>
       </c>
       <c r="D35">
-        <v>1437443754.307843</v>
+        <v>1539377390.51664</v>
       </c>
       <c r="E35">
-        <v>7.938139388789634e-12</v>
+        <v>7.650951931250183e-12</v>
       </c>
       <c r="F35">
-        <v>6.046990586903794e-07</v>
+        <v>6.475801618150212e-07</v>
       </c>
       <c r="G35">
-        <v>3262112.948598559</v>
+        <v>2821966.588777401</v>
       </c>
       <c r="H35">
-        <v>0.9998083656731391</v>
+        <v>0.9997993638759314</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
       </c>
       <c r="J35">
-        <v>2.90990061205622e-05</v>
+        <v>3.116250773239341e-05</v>
       </c>
       <c r="K35">
-        <v>0.003518944860707765</v>
+        <v>0.004187204728930336</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.000009459529196</v>
+        <v>1.000011255926691</v>
       </c>
       <c r="N35">
-        <v>0.001436957942272263</v>
+        <v>0.001384971415226004</v>
       </c>
       <c r="O35">
-        <v>4.041020225835066e-06</v>
+        <v>3.888098170490622e-06</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>0.3849605513111297</v>
+        <v>0.3637300507579774</v>
       </c>
       <c r="R35">
-        <v>0.917760306545006</v>
+        <v>0.9507933971953877</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9175844321664416</v>
+        <v>0.9506026336933844</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2931,55 +2931,55 @@
         <v>4.124626382901343e-06</v>
       </c>
       <c r="B36">
-        <v>0.04641319845051853</v>
+        <v>0.04079151818921594</v>
       </c>
       <c r="C36">
-        <v>1.058341390453248</v>
+        <v>1.051274938363876</v>
       </c>
       <c r="D36">
-        <v>1191388088.74022</v>
+        <v>1277428693.64979</v>
       </c>
       <c r="E36">
-        <v>6.579321581258988e-12</v>
+        <v>6.349024996030439e-12</v>
       </c>
       <c r="F36">
-        <v>5.011891794980475e-07</v>
+        <v>5.373844550641658e-07</v>
       </c>
       <c r="G36">
-        <v>3935832.436236648</v>
+        <v>3400637.221593707</v>
       </c>
       <c r="H36">
-        <v>0.9998310137761433</v>
+        <v>0.9998229334443219</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
       </c>
       <c r="J36">
-        <v>3.728819136005971e-05</v>
+        <v>3.99810993813207e-05</v>
       </c>
       <c r="K36">
-        <v>0.00450926360879554</v>
+        <v>0.005372130183967132</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.000012121676368</v>
+        <v>1.000014441210172</v>
       </c>
       <c r="N36">
-        <v>0.001841353704858789</v>
+        <v>0.001776900635467131</v>
       </c>
       <c r="O36">
-        <v>4.04788923838155e-06</v>
+        <v>3.894517240845137e-06</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0.3737236099906333</v>
+        <v>0.3523793851555299</v>
       </c>
       <c r="R36">
-        <v>0.9200188338429075</v>
+        <v>0.9522381858609538</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9198633633342993</v>
+        <v>0.9520695763251983</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3002,55 +3002,55 @@
         <v>4.923882631706728e-06</v>
       </c>
       <c r="B37">
-        <v>0.03887929854605168</v>
+        <v>0.03417014269154522</v>
       </c>
       <c r="C37">
-        <v>1.048871278272395</v>
+        <v>1.042951869363272</v>
       </c>
       <c r="D37">
-        <v>989068996.8415755</v>
+        <v>1061601554.366708</v>
       </c>
       <c r="E37">
-        <v>5.462034628157916e-12</v>
+        <v>5.276329581451239e-12</v>
       </c>
       <c r="F37">
-        <v>4.160782566813752e-07</v>
+        <v>4.465910117915557e-07</v>
       </c>
       <c r="G37">
-        <v>4740926.971509169</v>
+        <v>4091998.118963501</v>
       </c>
       <c r="H37">
-        <v>0.9998508171500605</v>
+        <v>0.9998435766341013</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
       </c>
       <c r="J37">
-        <v>4.78603006997797e-05</v>
+        <v>5.13700963002508e-05</v>
       </c>
       <c r="K37">
-        <v>0.005787749536243066</v>
+        <v>0.006902432628373602</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.000015558466495</v>
+        <v>1.00001855492642</v>
       </c>
       <c r="N37">
-        <v>0.002363422273776218</v>
+        <v>0.002283067703800298</v>
       </c>
       <c r="O37">
-        <v>4.059263098598959e-06</v>
+        <v>3.905162021910023e-06</v>
       </c>
       <c r="P37">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>0.3634291666360946</v>
+        <v>0.3420847129103564</v>
       </c>
       <c r="R37">
-        <v>0.9220915040172355</v>
+        <v>0.9535509755345859</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.9219539437787613</v>
+        <v>0.9534018178814367</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3073,55 +3073,55 @@
         <v>5.878016072274899e-06</v>
       </c>
       <c r="B38">
-        <v>0.03256831905356714</v>
+        <v>0.02862356449065039</v>
       </c>
       <c r="C38">
-        <v>1.040938377050334</v>
+        <v>1.035979820564747</v>
       </c>
       <c r="D38">
-        <v>822254651.6492962</v>
+        <v>883335120.7304448</v>
       </c>
       <c r="E38">
-        <v>4.540819088268073e-12</v>
+        <v>4.390316883649627e-12</v>
       </c>
       <c r="F38">
-        <v>3.459033526466812e-07</v>
+        <v>3.71598481271399e-07</v>
       </c>
       <c r="G38">
-        <v>5702739.260160142</v>
+        <v>4917806.913377466</v>
       </c>
       <c r="H38">
-        <v>0.9998681727304443</v>
+        <v>0.9998616941745329</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
       </c>
       <c r="J38">
-        <v>6.15156960495182e-05</v>
+        <v>6.608533583571003e-05</v>
       </c>
       <c r="K38">
-        <v>0.007439097458155069</v>
+        <v>0.008879671466125033</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <v>1.000019997573812</v>
+        <v>1.000023870084586</v>
       </c>
       <c r="N38">
-        <v>0.003037748699956418</v>
+        <v>0.00293706468953163</v>
       </c>
       <c r="O38">
-        <v>4.078134127570118e-06</v>
+        <v>3.922845898073703e-06</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0.35412385306668</v>
+        <v>0.332858854208936</v>
       </c>
       <c r="R38">
-        <v>0.9239680552644595</v>
+        <v>0.954729482666548</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.9238462510785772</v>
+        <v>0.95459743801735</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3144,55 +3144,55 @@
         <v>7.017038286703811e-06</v>
       </c>
       <c r="B39">
-        <v>0.02728175264578331</v>
+        <v>0.02397731995287058</v>
       </c>
       <c r="C39">
-        <v>1.03429316307575</v>
+        <v>1.030139491180758</v>
       </c>
       <c r="D39">
-        <v>684387227.3307449</v>
+        <v>735778615.6465329</v>
       </c>
       <c r="E39">
-        <v>3.779460024211305e-12</v>
+        <v>3.656937444341772e-12</v>
       </c>
       <c r="F39">
-        <v>2.879057430291566e-07</v>
+        <v>3.095249013761993e-07</v>
       </c>
       <c r="G39">
-        <v>6851536.23059016</v>
+        <v>5904047.047820409</v>
       </c>
       <c r="H39">
-        <v>0.999883413319641</v>
+        <v>0.9998776235470119</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
       </c>
       <c r="J39">
-        <v>7.916118164519115e-05</v>
+        <v>8.51054816890881e-05</v>
       </c>
       <c r="K39">
-        <v>0.009572967274681524</v>
+        <v>0.01143534655319199</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1.000025733782997</v>
+        <v>1.000030740178906</v>
       </c>
       <c r="N39">
-        <v>0.003909112504166759</v>
+        <v>0.003782386848665029</v>
       </c>
       <c r="O39">
-        <v>4.109497706479916e-06</v>
+        <v>3.952268175100825e-06</v>
       </c>
       <c r="P39">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0.34580901489625</v>
+        <v>0.3246753195311401</v>
       </c>
       <c r="R39">
-        <v>0.9256473655566402</v>
+        <v>0.9557764837815851</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9255394474031069</v>
+        <v>0.9556595192456505</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3215,55 +3215,55 @@
         <v>8.376776400682898e-06</v>
       </c>
       <c r="B40">
-        <v>0.02285331417324664</v>
+        <v>0.02008526479328299</v>
       </c>
       <c r="C40">
-        <v>1.028726615915771</v>
+        <v>1.025247177845157</v>
       </c>
       <c r="D40">
-        <v>570210409.4046538</v>
+        <v>613418162.3346227</v>
       </c>
       <c r="E40">
-        <v>3.148929964896259e-12</v>
+        <v>3.048786413709048e-12</v>
       </c>
       <c r="F40">
-        <v>2.398742189314256e-07</v>
+        <v>2.580507127570638e-07</v>
       </c>
       <c r="G40">
-        <v>8223462.438550622</v>
+        <v>7081745.912159</v>
       </c>
       <c r="H40">
-        <v>0.9998968196638001</v>
+        <v>0.9998916506498374</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
       </c>
       <c r="J40">
-        <v>0.0001019709071974937</v>
+        <v>0.000109697763269508</v>
       </c>
       <c r="K40">
-        <v>0.01233134899307675</v>
+        <v>0.01473973138040153</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>1.000033148787616</v>
+        <v>1.000039622933818</v>
       </c>
       <c r="N40">
-        <v>0.005035495177088043</v>
+        <v>0.004875354311892179</v>
       </c>
       <c r="O40">
-        <v>4.161699417075732e-06</v>
+        <v>4.001283516478832e-06</v>
       </c>
       <c r="P40">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>0.3384522188492124</v>
+        <v>0.3174798606119735</v>
       </c>
       <c r="R40">
-        <v>0.9271352041317139</v>
+        <v>0.9566983784012821</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9270395420096488</v>
+        <v>0.9565947207536808</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3286,55 +3286,55 @@
         <v>9.999999999999974e-06</v>
       </c>
       <c r="B41">
-        <v>0.0191437102843845</v>
+        <v>0.01682497721218405</v>
       </c>
       <c r="C41">
-        <v>1.024063643827471</v>
+        <v>1.021148996355715</v>
       </c>
       <c r="D41">
-        <v>475487425.3284388</v>
+        <v>511792698.8450001</v>
       </c>
       <c r="E41">
-        <v>2.62583175763377e-12</v>
+        <v>2.543691600091465e-12</v>
       </c>
       <c r="F41">
-        <v>2.00026468968637e-07</v>
+        <v>2.152992507071702e-07</v>
       </c>
       <c r="G41">
-        <v>9861678.004567176</v>
+        <v>8487951.417362699</v>
       </c>
       <c r="H41">
-        <v>0.9999086299751672</v>
+        <v>0.9999040190264307</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
       </c>
       <c r="J41">
-        <v>0.0001314652426028179</v>
+        <v>0.0001415031139246926</v>
       </c>
       <c r="K41">
-        <v>0.01589810105204884</v>
+        <v>0.01901331282039074</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1.000042736830785</v>
+        <v>1.000051111055969</v>
       </c>
       <c r="N41">
-        <v>0.006491975145411575</v>
+        <v>0.00628889592692982</v>
       </c>
       <c r="O41">
-        <v>4.248690754026125e-06</v>
+        <v>4.083027982577773e-06</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>0.331997752073783</v>
+        <v>0.3112004450217832</v>
       </c>
       <c r="R41">
-        <v>0.928442153297563</v>
+        <v>0.9575039321046958</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.9283573215149603</v>
+        <v>0.9574120299450959</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Section_2.xlsx
+++ b/Excel Output/Section_2.xlsx
@@ -508,13 +508,13 @@
         <v>7.087684130333826e-08</v>
       </c>
       <c r="F2">
-        <v>0.00599904910821384</v>
+        <v>3.081948765271148e-05</v>
       </c>
       <c r="G2">
         <v>304.6232073171274</v>
       </c>
       <c r="H2">
-        <v>0.9158647890537029</v>
+        <v>0.995293333746834</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
@@ -523,28 +523,28 @@
         <v>1.643636949493113e-07</v>
       </c>
       <c r="K2">
-        <v>2.208501468066418e-05</v>
+        <v>3.403783624618495e-07</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.000000059368319</v>
+        <v>1.000000025528377</v>
       </c>
       <c r="N2">
-        <v>7.304900528563438e-06</v>
+        <v>5.662713588033674e-06</v>
       </c>
       <c r="O2">
-        <v>3.878162670241887e-06</v>
+        <v>4.935757152443899e-05</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9995912280894692</v>
       </c>
       <c r="Q2">
         <v>0.561042332172635</v>
       </c>
       <c r="R2">
-        <v>0.9260485244735909</v>
+        <v>0.9849215261280716</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.8481352365204982</v>
+        <v>0.9798851159077517</v>
       </c>
       <c r="X2">
-        <v>-5.848463958674458e-06</v>
+        <v>-3.086278441579141e-07</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -582,13 +582,13 @@
         <v>4.993454217614539e-08</v>
       </c>
       <c r="F3">
-        <v>0.004226483082517988</v>
+        <v>2.171311499979373e-05</v>
       </c>
       <c r="G3">
         <v>432.3806683992032</v>
       </c>
       <c r="H3">
-        <v>0.9319300097762322</v>
+        <v>0.9962715837727592</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
@@ -597,28 +597,28 @@
         <v>1.790331211206668e-07</v>
       </c>
       <c r="K3">
-        <v>2.405609772580513e-05</v>
+        <v>3.707570617238783e-07</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.000000064666929</v>
+        <v>1.00000002780678</v>
       </c>
       <c r="N3">
-        <v>7.956861407308007e-06</v>
+        <v>6.168109618068224e-06</v>
       </c>
       <c r="O3">
-        <v>3.878162721782123e-06</v>
+        <v>4.935757256560776e-05</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9995912280808482</v>
       </c>
       <c r="Q3">
         <v>0.5599938262080263</v>
       </c>
       <c r="R3">
-        <v>0.9261784439722154</v>
+        <v>0.9849494924572501</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.8631334863455622</v>
+        <v>0.9808760722260621</v>
       </c>
       <c r="X3">
-        <v>-0.0005007448236685838</v>
+        <v>-2.958416741437979e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -656,13 +656,13 @@
         <v>3.520839095477028e-08</v>
       </c>
       <c r="F4">
-        <v>0.002980054732615612</v>
+        <v>1.530971965381975e-05</v>
       </c>
       <c r="G4">
         <v>613.226851237423</v>
       </c>
       <c r="H4">
-        <v>0.9451144075755642</v>
+        <v>0.9970452351406177</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
@@ -671,28 +671,28 @@
         <v>1.951682903138354e-07</v>
       </c>
       <c r="K4">
-        <v>2.622412788974141e-05</v>
+        <v>4.041711466877709e-07</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.000000070494967</v>
+        <v>1.000000030312836</v>
       </c>
       <c r="N4">
-        <v>8.673965059692961e-06</v>
+        <v>6.724003922242606e-06</v>
       </c>
       <c r="O4">
-        <v>3.87816278355758e-06</v>
+        <v>4.93575738135391e-05</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9995912280705151</v>
       </c>
       <c r="Q4">
         <v>0.5587742654574864</v>
       </c>
       <c r="R4">
-        <v>0.926329577090754</v>
+        <v>0.9849820222529709</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.8754874294718509</v>
+        <v>0.9816701886705951</v>
       </c>
       <c r="X4">
-        <v>-0.01802475032205957</v>
+        <v>-0.001200254392667558</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -730,13 +730,13 @@
         <v>2.484911943934153e-08</v>
       </c>
       <c r="F5">
-        <v>0.002103241130265491</v>
+        <v>1.080518143386094e-05</v>
       </c>
       <c r="G5">
         <v>868.8730711377706</v>
       </c>
       <c r="H5">
-        <v>0.9558812441775009</v>
+        <v>0.9976570341772759</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
@@ -745,28 +745,28 @@
         <v>2.129633415017622e-07</v>
       </c>
       <c r="K5">
-        <v>2.86151909943384e-05</v>
+        <v>4.410226569019897e-07</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.000000076922557</v>
+        <v>1.000000033076699</v>
       </c>
       <c r="N5">
-        <v>9.464839704294909e-06</v>
+        <v>7.337085042089079e-06</v>
       </c>
       <c r="O5">
-        <v>3.878162857865743e-06</v>
+        <v>4.935757531464469e-05</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9995912280580858</v>
       </c>
       <c r="Q5">
         <v>0.557362778762996</v>
       </c>
       <c r="R5">
-        <v>0.9265045191959397</v>
+        <v>0.985019672701775</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.885628292545092</v>
+        <v>0.98231010026094</v>
       </c>
       <c r="X5">
-        <v>-0.3489435966084408</v>
+        <v>-0.02619449969183114</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -804,13 +804,13 @@
         <v>1.75582756642924e-08</v>
       </c>
       <c r="F6">
-        <v>0.001486140691778895</v>
+        <v>7.634892442830644e-06</v>
       </c>
       <c r="G6">
         <v>1229.66122272691</v>
       </c>
       <c r="H6">
-        <v>0.9646275257395026</v>
+        <v>0.9981408328673845</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
@@ -819,28 +819,28 @@
         <v>2.32651834466617e-07</v>
       </c>
       <c r="K6">
-        <v>3.126066970728086e-05</v>
+        <v>4.817952678899919e-07</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.000000084034058</v>
+        <v>1.000000036134645</v>
       </c>
       <c r="N6">
-        <v>1.033986555906131e-05</v>
+        <v>8.015399658187065e-06</v>
       </c>
       <c r="O6">
-        <v>3.878162947631245e-06</v>
+        <v>4.935757712800536e-05</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9995912280430708</v>
       </c>
       <c r="Q6">
         <v>0.5557387786071424</v>
       </c>
       <c r="R6">
-        <v>0.926705833480828</v>
+        <v>0.9850629935833155</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.8939259552389747</v>
+        <v>0.9828296793381338</v>
       </c>
       <c r="X6">
-        <v>-3.827189801052997</v>
+        <v>-0.322220231382929</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -878,13 +878,13 @@
         <v>1.242404893030235e-08</v>
       </c>
       <c r="F7">
-        <v>0.001051577331680906</v>
+        <v>5.402368609591271e-06</v>
       </c>
       <c r="G7">
         <v>1737.817586155024</v>
       </c>
       <c r="H7">
-        <v>0.9716960107826244</v>
+        <v>0.9985234239474978</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
@@ -893,28 +893,28 @@
         <v>2.545180226342733e-07</v>
       </c>
       <c r="K7">
-        <v>3.419875823614841e-05</v>
+        <v>5.270776358976278e-07</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.000000091932146</v>
+        <v>1.000000039530823</v>
       </c>
       <c r="N7">
-        <v>1.131167584571154e-05</v>
+        <v>8.768740965667861e-06</v>
       </c>
       <c r="O7">
-        <v>3.878163056622215e-06</v>
+        <v>4.935757932974131e-05</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9995912280248401</v>
       </c>
       <c r="Q7">
         <v>0.5538833052377105</v>
       </c>
       <c r="R7">
-        <v>0.9269358848575884</v>
+        <v>0.9851124914413137</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9006999015673807</v>
+        <v>0.9832558061456134</v>
       </c>
       <c r="X7">
-        <v>-22.50404648717085</v>
+        <v>-2.105617033354256</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -952,13 +952,13 @@
         <v>8.806046222984214e-09</v>
       </c>
       <c r="F8">
-        <v>0.0007453478847172487</v>
+        <v>3.829146839049187e-06</v>
       </c>
       <c r="G8">
         <v>2451.807562169851</v>
       </c>
       <c r="H8">
-        <v>0.9773818112105721</v>
+        <v>0.9988260034985965</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
@@ -967,28 +967,28 @@
         <v>2.789119469967169e-07</v>
       </c>
       <c r="K8">
-        <v>3.747649044963828e-05</v>
+        <v>5.775946556754287e-07</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.000000100743254</v>
+        <v>1.000000043319599</v>
       </c>
       <c r="N8">
-        <v>1.239582761672098e-05</v>
+        <v>9.609168695132542e-06</v>
       </c>
       <c r="O8">
-        <v>3.878163189758399e-06</v>
+        <v>4.935758201923686e-05</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.9995912280025706</v>
       </c>
       <c r="Q8">
         <v>0.5517808612458522</v>
       </c>
       <c r="R8">
-        <v>0.9271966128505492</v>
+        <v>0.985168580659878</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9062251048161775</v>
+        <v>0.9836097596437124</v>
       </c>
       <c r="X8">
-        <v>-54.32916305548667</v>
+        <v>-4.692495688309674</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1026,13 +1026,13 @@
         <v>6.254421493720984e-09</v>
       </c>
       <c r="F9">
-        <v>0.0005293771702342095</v>
+        <v>2.719619870976225e-06</v>
       </c>
       <c r="G9">
         <v>3452.074783256226</v>
       </c>
       <c r="H9">
-        <v>0.9819368035738238</v>
+        <v>0.9990653343654967</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
@@ -1041,28 +1041,28 @@
         <v>3.062697270025786e-07</v>
       </c>
       <c r="K9">
-        <v>4.115246629847865e-05</v>
+        <v>6.342494805858717e-07</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.000000110624909</v>
+        <v>1.000000047568711</v>
       </c>
       <c r="N9">
-        <v>1.361170355384184e-05</v>
+        <v>1.055170818127274e-05</v>
       </c>
       <c r="O9">
-        <v>3.878163353556398e-06</v>
+        <v>4.935758532813437e-05</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.9995912279751725</v>
       </c>
       <c r="Q9">
         <v>0.5494217666575311</v>
       </c>
       <c r="R9">
-        <v>0.9274892395472877</v>
+        <v>0.9852315206317496</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9107358192301803</v>
+        <v>0.9839082999264157</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1097,13 +1097,13 @@
         <v>4.453113406821974e-09</v>
       </c>
       <c r="F10">
-        <v>0.0003769136084611635</v>
+        <v>1.936354260911592e-06</v>
       </c>
       <c r="G10">
         <v>4848.457416165035</v>
       </c>
       <c r="H10">
-        <v>0.9855735382716397</v>
+        <v>0.9992546701912924</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
@@ -1112,28 +1112,28 @@
         <v>3.37140906705436e-07</v>
       </c>
       <c r="K10">
-        <v>4.530052622836334e-05</v>
+        <v>6.981801533403669e-07</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.000000121775608</v>
+        <v>1.000000052363512</v>
       </c>
       <c r="N10">
-        <v>1.498372732708645e-05</v>
+        <v>1.16152925016174e-05</v>
       </c>
       <c r="O10">
-        <v>3.878163556782029e-06</v>
+        <v>4.935758943351287e-05</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9995912279411793</v>
       </c>
       <c r="Q10">
         <v>0.5468049784848901</v>
       </c>
       <c r="R10">
-        <v>0.9278139192761128</v>
+        <v>0.985301340499011</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.914428847278636</v>
+        <v>0.9841645025736228</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,13 +1168,13 @@
         <v>3.180002559377332e-09</v>
       </c>
       <c r="F11">
-        <v>0.0002691569089020873</v>
+        <v>1.382765481814785e-06</v>
       </c>
       <c r="G11">
         <v>6789.532498539113</v>
       </c>
       <c r="H11">
-        <v>0.9884692852148141</v>
+        <v>0.9994044884565465</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
@@ -1183,28 +1183,28 @@
         <v>3.722253387542943e-07</v>
       </c>
       <c r="K11">
-        <v>5.001470716169388e-05</v>
+        <v>7.708359885135616e-07</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.000000134448138</v>
+        <v>1.000000057812699</v>
       </c>
       <c r="N11">
-        <v>1.654300284895331e-05</v>
+        <v>1.282403321624287e-05</v>
       </c>
       <c r="O11">
-        <v>3.878163811419312e-06</v>
+        <v>4.935759457746258e-05</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.9995912278985866</v>
       </c>
       <c r="Q11">
         <v>0.5439411685798831</v>
       </c>
       <c r="R11">
-        <v>0.9281693552665116</v>
+        <v>0.9853777569503565</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9174668991585836</v>
+        <v>0.9843883980540699</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1239,13 +1239,13 @@
         <v>2.278943245918157e-09</v>
       </c>
       <c r="F12">
-        <v>0.0001928908257717652</v>
+        <v>9.909564525909083e-07</v>
       </c>
       <c r="G12">
         <v>9474.009833725071</v>
       </c>
       <c r="H12">
-        <v>0.9907702826172705</v>
+        <v>0.9995230714665548</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
@@ -1254,28 +1254,28 @@
         <v>4.124228730421828e-07</v>
       </c>
       <c r="K12">
-        <v>5.54159189995532e-05</v>
+        <v>8.540804720361247e-07</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.000000148967524</v>
+        <v>1.000000064056035</v>
       </c>
       <c r="N12">
-        <v>1.832952261268276e-05</v>
+        <v>1.420893225789362e-05</v>
       </c>
       <c r="O12">
-        <v>3.87816413412857e-06</v>
+        <v>4.935760109654015e-05</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.9995912278446076</v>
       </c>
       <c r="Q12">
         <v>0.5408556234995993</v>
       </c>
       <c r="R12">
-        <v>0.928552437167051</v>
+        <v>0.9854600967033614</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9199821605969545</v>
+        <v>0.9845874661373656</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1310,13 +1310,13 @@
         <v>1.640129404132046e-09</v>
       </c>
       <c r="F13">
-        <v>0.0001388213224275025</v>
+        <v>7.131800315869305e-07</v>
       </c>
       <c r="G13">
         <v>13164.04100062807</v>
       </c>
       <c r="H13">
-        <v>0.9925960225822256</v>
+        <v>0.9996169664882218</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
@@ -1325,28 +1325,28 @@
         <v>4.589000631480191e-07</v>
       </c>
       <c r="K13">
-        <v>6.166090774916707e-05</v>
+        <v>9.503294025857291e-07</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.000000165755128</v>
+        <v>1.000000071274705</v>
       </c>
       <c r="N13">
-        <v>2.039513236108231e-05</v>
+        <v>1.581018012487001e-05</v>
       </c>
       <c r="O13">
-        <v>3.87816454846778e-06</v>
+        <v>4.935760946664223e-05</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.9995912277753018</v>
       </c>
       <c r="Q13">
         <v>0.5375902183767163</v>
       </c>
       <c r="R13">
-        <v>0.9289579922185979</v>
+        <v>0.9855472436309152</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9220800082221503</v>
+        <v>0.9847670359803825</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1381,13 +1381,13 @@
         <v>1.186310189056195e-09</v>
       </c>
       <c r="F14">
-        <v>0.0001004098511002262</v>
+        <v>5.158451131791788e-07</v>
       </c>
       <c r="G14">
         <v>18199.90329806331</v>
       </c>
       <c r="H14">
-        <v>0.994043366235932</v>
+        <v>0.9996913499443357</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
@@ -1396,28 +1396,28 @@
         <v>5.131791847923322e-07</v>
       </c>
       <c r="K14">
-        <v>6.895421664404133e-05</v>
+        <v>1.06273523859992e-06</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.000000185360797</v>
+        <v>1.000000079705143</v>
       </c>
       <c r="N14">
-        <v>2.28074873796999e-05</v>
+        <v>1.768022277496116e-05</v>
       </c>
       <c r="O14">
-        <v>3.87816508831579e-06</v>
+        <v>4.935762037215844e-05</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.9995912276850025</v>
       </c>
       <c r="Q14">
         <v>0.5342033557678189</v>
       </c>
       <c r="R14">
-        <v>0.9293787881773155</v>
+        <v>0.9856376401502104</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.9238428191080499</v>
+        <v>0.9849306460133337</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1452,13 +1452,13 @@
         <v>8.631115306721192e-10</v>
       </c>
       <c r="F15">
-        <v>7.305416498751032e-05</v>
+        <v>3.753081355391808e-07</v>
       </c>
       <c r="G15">
         <v>25014.99511368697</v>
       </c>
       <c r="H15">
-        <v>0.9951903253702359</v>
+        <v>0.9997503154870006</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
@@ -1467,28 +1467,28 @@
         <v>5.772560054981633e-07</v>
       </c>
       <c r="K15">
-        <v>7.756401046995275e-05</v>
+        <v>1.195430985737623e-06</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.000000208505404</v>
+        <v>1.000000089657324</v>
       </c>
       <c r="N15">
-        <v>2.565528659464844e-05</v>
+        <v>1.988781906561895e-05</v>
       </c>
       <c r="O15">
-        <v>3.878165803203508e-06</v>
+        <v>4.935763481366688e-05</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.9995912275654246</v>
       </c>
       <c r="Q15">
         <v>0.5307664423860087</v>
       </c>
       <c r="R15">
-        <v>0.9298059662984529</v>
+        <v>0.9857293810177884</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9253339021317439</v>
+        <v>0.9850804212660563</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1523,13 +1523,13 @@
         <v>6.322399558352993e-10</v>
       </c>
       <c r="F16">
-        <v>5.351308655246561e-05</v>
+        <v>2.749178879039451e-07</v>
       </c>
       <c r="G16">
         <v>34149.58280168299</v>
       </c>
       <c r="H16">
-        <v>0.9960994144090446</v>
+        <v>0.9997971016819365</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
@@ -1538,28 +1538,28 @@
         <v>6.537538343250226e-07</v>
       </c>
       <c r="K16">
-        <v>8.784277472626336e-05</v>
+        <v>1.353849216211227e-06</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.000000236136491</v>
+        <v>1.000000101538691</v>
       </c>
       <c r="N16">
-        <v>2.905511908444257e-05</v>
+        <v>2.252334812747486e-05</v>
       </c>
       <c r="O16">
-        <v>3.878166766694492e-06</v>
+        <v>4.935765427723135e-05</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.9995912274042632</v>
       </c>
       <c r="Q16">
         <v>0.527355378372762</v>
       </c>
       <c r="R16">
-        <v>0.9302300957012246</v>
+        <v>0.9858204403360779</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.9266016535936593</v>
+        <v>0.9852175244097242</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1594,13 +1594,13 @@
         <v>4.66709804869504e-10</v>
       </c>
       <c r="F17">
-        <v>3.950253689656431e-05</v>
+        <v>2.029401537099481e-07</v>
       </c>
       <c r="G17">
         <v>46261.57517382113</v>
       </c>
       <c r="H17">
-        <v>0.996820536566581</v>
+        <v>0.9998342717630003</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
@@ -1609,28 +1609,28 @@
         <v>7.461222729111786e-07</v>
       </c>
       <c r="K17">
-        <v>0.0001002540211565313</v>
+        <v>1.545133659401737e-06</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.000000269500057</v>
+        <v>1.000000115885024</v>
       </c>
       <c r="N17">
-        <v>3.316029727515358e-05</v>
+        <v>2.570565680244464e-05</v>
       </c>
       <c r="O17">
-        <v>3.878168089665191e-06</v>
+        <v>4.935768100267653e-05</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.9995912271829724</v>
       </c>
       <c r="Q17">
         <v>0.5240359191068635</v>
       </c>
       <c r="R17">
-        <v>0.9306429930845589</v>
+        <v>0.9859090623157521</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.9276840477184789</v>
+        <v>0.9853427233108817</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1665,13 +1665,13 @@
         <v>3.47490991518407e-10</v>
       </c>
       <c r="F18">
-        <v>2.941180058884281e-05</v>
+        <v>1.511000508148435e-07</v>
       </c>
       <c r="G18">
         <v>62133.2099229003</v>
       </c>
       <c r="H18">
-        <v>0.997393411611376</v>
+        <v>0.9998638553168689</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
@@ -1680,28 +1680,28 @@
         <v>8.58889709053041e-07</v>
       </c>
       <c r="K18">
-        <v>0.0001154062144888966</v>
+        <v>1.778662087104859e-06</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.000000310231759</v>
+        <v>1.000000133399656</v>
       </c>
       <c r="N18">
-        <v>3.817207864287883e-05</v>
+        <v>2.959075863789057e-05</v>
       </c>
       <c r="O18">
-        <v>3.878169941486203e-06</v>
+        <v>4.935771841147247e-05</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.9995912268732218</v>
       </c>
       <c r="Q18">
         <v>0.5208429342679713</v>
       </c>
       <c r="R18">
-        <v>0.9310403067903079</v>
+        <v>0.9859943152344146</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9286134679372874</v>
+        <v>0.9854570842444135</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1736,13 +1736,13 @@
         <v>2.611540948661027e-10</v>
       </c>
       <c r="F19">
-        <v>2.21042051409689e-05</v>
+        <v>1.135580431375941e-07</v>
       </c>
       <c r="G19">
         <v>82674.29516431596</v>
       </c>
       <c r="H19">
-        <v>0.9978495797597896</v>
+        <v>0.9998874597165307</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
@@ -1751,28 +1751,28 @@
         <v>9.979791271700889e-07</v>
       </c>
       <c r="K19">
-        <v>0.0001340952068602799</v>
+        <v>2.066700320785676e-06</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.000000360470986</v>
+        <v>1.000000155002524</v>
       </c>
       <c r="N19">
-        <v>4.43537014412355e-05</v>
+        <v>3.43827142955314e-05</v>
       </c>
       <c r="O19">
-        <v>3.878172583970041e-06</v>
+        <v>4.935777179251637e-05</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.9995912264312184</v>
       </c>
       <c r="Q19">
         <v>0.5177557105105189</v>
       </c>
       <c r="R19">
-        <v>0.9314245992711024</v>
+        <v>0.9860767513345055</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.9294216449606</v>
+        <v>0.9855627412276274</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1807,13 +1807,13 @@
         <v>1.982156114148177e-10</v>
       </c>
       <c r="F20">
-        <v>1.677706236657752e-05</v>
+        <v>8.619040403379131e-08</v>
       </c>
       <c r="G20">
         <v>108925.4805321349</v>
       </c>
       <c r="H20">
-        <v>0.9982140306534183</v>
+        <v>0.9999063575459894</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
@@ -1822,28 +1822,28 @@
         <v>1.171098012204469e-06</v>
       </c>
       <c r="K20">
-        <v>0.0001573566279342195</v>
+        <v>2.425209677839225e-06</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.000000423001688</v>
+        <v>1.000000181890726</v>
       </c>
       <c r="N20">
-        <v>5.204771340161369e-05</v>
+        <v>4.034706465241372e-05</v>
       </c>
       <c r="O20">
-        <v>3.878176425962123e-06</v>
+        <v>4.935784940492976e-05</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.9995912257885756</v>
       </c>
       <c r="Q20">
         <v>0.5146743298970249</v>
       </c>
       <c r="R20">
-        <v>0.9318083015271139</v>
+        <v>0.9861590382816623</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.9301441204636961</v>
+        <v>0.9856636132948676</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1878,13 +1878,13 @@
         <v>1.519746304204334e-10</v>
       </c>
       <c r="F21">
-        <v>1.286320403575728e-05</v>
+        <v>6.608336601404578e-08</v>
       </c>
       <c r="G21">
         <v>142067.9929446107</v>
       </c>
       <c r="H21">
-        <v>0.9985065123517917</v>
+        <v>0.9999215550639972</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
@@ -1893,28 +1893,28 @@
         <v>1.388216661496476e-06</v>
       </c>
       <c r="K21">
-        <v>0.0001865301541106584</v>
+        <v>2.87483750063022e-06</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.000000501425145</v>
+        <v>1.000000215612812</v>
       </c>
       <c r="N21">
-        <v>6.169722959473216e-05</v>
+        <v>4.782730976335827e-05</v>
       </c>
       <c r="O21">
-        <v>3.878182111320389e-06</v>
+        <v>4.935796425534238e-05</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.9995912248375964</v>
       </c>
       <c r="Q21">
         <v>0.5114049727272655</v>
       </c>
       <c r="R21">
-        <v>0.9322155619085596</v>
+        <v>0.9862463525699872</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9308233094813816</v>
+        <v>0.9857658651503474</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1949,13 +1949,13 @@
         <v>1.176942689266701e-10</v>
       </c>
       <c r="F22">
-        <v>9.961698152216692e-06</v>
+        <v>5.117718286085038e-08</v>
       </c>
       <c r="G22">
         <v>183447.5962103315</v>
       </c>
       <c r="H22">
-        <v>0.9987425760380491</v>
+        <v>0.9999338458548414</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
@@ -1964,28 +1964,28 @@
         <v>1.662157759701773e-06</v>
       </c>
       <c r="K22">
-        <v>0.0002233387277884833</v>
+        <v>3.442138098532181e-06</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.000000600372924</v>
+        <v>1.000000258160357</v>
       </c>
       <c r="N22">
-        <v>7.387213521298476e-05</v>
+        <v>5.726522109533703e-05</v>
       </c>
       <c r="O22">
-        <v>3.878190660951269e-06</v>
+        <v>4.935813696717309e-05</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.9995912234075156</v>
       </c>
       <c r="Q22">
         <v>0.5076631979275652</v>
       </c>
       <c r="R22">
-        <v>0.9326818626621735</v>
+        <v>0.9863462931404668</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.931509086139185</v>
+        <v>0.9858778736409329</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2020,13 +2020,13 @@
         <v>9.202482558888045e-11</v>
       </c>
       <c r="F23">
-        <v>7.789024422234032e-06</v>
+        <v>4.001529870442812e-08</v>
       </c>
       <c r="G23">
         <v>234618.5454214955</v>
       </c>
       <c r="H23">
-        <v>0.9989344095293275</v>
+        <v>0.9999438531115743</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
@@ -2035,28 +2035,28 @@
         <v>2.009336614450373e-06</v>
       </c>
       <c r="K23">
-        <v>0.0002699880204215285</v>
+        <v>4.16110569108449e-06</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.000000725774248</v>
+        <v>1.000000312082927</v>
       </c>
       <c r="N23">
-        <v>8.930198424589444e-05</v>
+        <v>6.922634437666236e-05</v>
       </c>
       <c r="O23">
-        <v>3.878203702619719e-06</v>
+        <v>4.935840042304215e-05</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.9995912212260601</v>
       </c>
       <c r="Q23">
         <v>0.5031020355378298</v>
       </c>
       <c r="R23">
-        <v>0.9332505547871413</v>
+        <v>0.9864681327611117</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.9322560918892103</v>
+        <v>0.9860095210521627</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2091,13 +2091,13 @@
         <v>7.259634844303e-11</v>
       </c>
       <c r="F24">
-        <v>6.144588999428621e-06</v>
+        <v>3.156718362908371e-08</v>
       </c>
       <c r="G24">
         <v>297407.9438619875</v>
       </c>
       <c r="H24">
-        <v>0.9990915073672226</v>
+        <v>0.9999520633892227</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
@@ -2106,28 +2106,28 @@
         <v>2.450717436788384e-06</v>
       </c>
       <c r="K24">
-        <v>0.0003292949248088069</v>
+        <v>5.075154755117813e-06</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.000000885201411</v>
+        <v>1.000000380636607</v>
       </c>
       <c r="N24">
-        <v>0.0001089184999453562</v>
+        <v>8.443294569407456e-05</v>
       </c>
       <c r="O24">
-        <v>3.878223844063728e-06</v>
+        <v>4.935880730208953e-05</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.9995912178570385</v>
       </c>
       <c r="Q24">
         <v>0.4973651110309316</v>
       </c>
       <c r="R24">
-        <v>0.9339662823135051</v>
+        <v>0.9866214011866633</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.9331177808267608</v>
+        <v>0.9861708120233696</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2162,13 +2162,13 @@
         <v>5.773005204541321e-11</v>
       </c>
       <c r="F25">
-        <v>4.886298696043371e-06</v>
+        <v>2.510284873714037e-08</v>
       </c>
       <c r="G25">
         <v>373994.6519595314</v>
       </c>
       <c r="H25">
-        <v>0.9992212173675322</v>
+        <v>0.9999588540669698</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
@@ -2177,28 +2177,28 @@
         <v>3.013083606536514e-06</v>
       </c>
       <c r="K25">
-        <v>0.0004048582365159729</v>
+        <v>6.239750598633274e-06</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.000001088328593</v>
+        <v>1.000000467981295</v>
       </c>
       <c r="N25">
-        <v>0.0001339120298845937</v>
+        <v>0.0001038077751043362</v>
       </c>
       <c r="O25">
-        <v>3.878255281786919e-06</v>
+        <v>4.935944237824682e-05</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9995912125985095</v>
       </c>
       <c r="Q25">
         <v>0.4901552726883197</v>
       </c>
       <c r="R25">
-        <v>0.934866471127959</v>
+        <v>0.9868140539405663</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.9341384133565681</v>
+        <v>0.9863700700008772</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2233,13 +2233,13 @@
         <v>4.623343819014293e-11</v>
       </c>
       <c r="F26">
-        <v>3.913219904329643e-06</v>
+        <v>2.010375817039124e-08</v>
       </c>
       <c r="G26">
         <v>466993.8375237068</v>
       </c>
       <c r="H26">
-        <v>0.9993291934378294</v>
+        <v>0.9999645161305598</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
@@ -2248,28 +2248,28 @@
         <v>3.730750398964927e-06</v>
       </c>
       <c r="K26">
-        <v>0.0005012887873836362</v>
+        <v>7.725956221324861e-06</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.000001347550504</v>
+        <v>1.000000579446717</v>
       </c>
       <c r="N26">
-        <v>0.0001658076655537692</v>
+        <v>0.0001285330740726893</v>
       </c>
       <c r="O26">
-        <v>3.878304800203045e-06</v>
+        <v>4.936044270404137e-05</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0.9995912043156568</v>
       </c>
       <c r="Q26">
         <v>0.4813003997817135</v>
       </c>
       <c r="R26">
-        <v>0.9359731406234266</v>
+        <v>0.9870507148312511</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.9353452836986811</v>
+        <v>0.9866122026979192</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2304,13 +2304,13 @@
         <v>3.725485615939734e-11</v>
       </c>
       <c r="F27">
-        <v>3.153268507877778e-06</v>
+        <v>1.619958731645692e-08</v>
       </c>
       <c r="G27">
         <v>579541.3792487237</v>
       </c>
       <c r="H27">
-        <v>0.9994197735381227</v>
+        <v>0.9999692732609562</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
@@ -2319,28 +2319,28 @@
         <v>4.647866687827727e-06</v>
       </c>
       <c r="K27">
-        <v>0.0006245187178719815</v>
+        <v>9.625198877596847e-06</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.000001678813758</v>
+        <v>1.000000721889916</v>
       </c>
       <c r="N27">
-        <v>0.0002065675381359357</v>
+        <v>0.0001601298745239812</v>
       </c>
       <c r="O27">
-        <v>3.878383420335661e-06</v>
+        <v>4.936203091612038e-05</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0.9995911911650147</v>
       </c>
       <c r="Q27">
         <v>0.4707956549538924</v>
       </c>
       <c r="R27">
-        <v>0.9372875959347504</v>
+        <v>0.9873315448401264</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.9367437568691998</v>
+        <v>0.9868975899050374</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2375,13 +2375,13 @@
         <v>3.018075381064759e-11</v>
       </c>
       <c r="F28">
-        <v>2.554513165423179e-06</v>
+        <v>1.312354433849423e-08</v>
       </c>
       <c r="G28">
         <v>715380.764105132</v>
       </c>
       <c r="H28">
-        <v>0.9994962921663784</v>
+        <v>0.9999732976916201</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
@@ -2390,28 +2390,28 @@
         <v>5.821456062697208e-06</v>
       </c>
       <c r="K28">
-        <v>0.0007822101020980245</v>
+        <v>1.205556788179751e-05</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.000002102715328</v>
+        <v>1.000000904167591</v>
       </c>
       <c r="N28">
-        <v>0.0002587259764543511</v>
+        <v>0.0002005627724452334</v>
       </c>
       <c r="O28">
-        <v>3.878509130900994e-06</v>
+        <v>4.936457040609171e-05</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0.9995911701376446</v>
       </c>
       <c r="Q28">
         <v>0.4588085484180427</v>
       </c>
       <c r="R28">
-        <v>0.9387896924883562</v>
+        <v>0.9876521013745844</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.9383168167661265</v>
+        <v>0.9872219578928442</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2446,13 +2446,13 @@
         <v>2.456384759662929e-11</v>
       </c>
       <c r="F29">
-        <v>2.079095587629116e-06</v>
+        <v>1.068113623274217e-08</v>
       </c>
       <c r="G29">
         <v>878963.714352823</v>
       </c>
       <c r="H29">
-        <v>0.9995613312173378</v>
+        <v>0.9999767229954245</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
@@ -2461,28 +2461,28 @@
         <v>7.325355479399704e-06</v>
       </c>
       <c r="K29">
-        <v>0.0009842841714742319</v>
+        <v>1.516997110157418e-05</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.000002645925192</v>
+        <v>1.000001137747833</v>
       </c>
       <c r="N29">
-        <v>0.0003255645544466764</v>
+        <v>0.0002523756236020748</v>
       </c>
       <c r="O29">
-        <v>3.878711421756133e-06</v>
+        <v>4.936865690110153e-05</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0.9995911363008344</v>
       </c>
       <c r="Q29">
         <v>0.4456472636818296</v>
       </c>
       <c r="R29">
-        <v>0.940441641438567</v>
+        <v>0.9880041773883589</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9400290990485524</v>
+        <v>0.9875772299707997</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2517,13 +2517,13 @@
         <v>2.007359836020427e-11</v>
       </c>
       <c r="F30">
-        <v>1.69903878512366e-06</v>
+        <v>8.728634141017604e-09</v>
       </c>
       <c r="G30">
         <v>1075578.49543973</v>
       </c>
       <c r="H30">
-        <v>0.9996169127037465</v>
+        <v>0.9999796539416403</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
@@ -2532,28 +2532,28 @@
         <v>9.255253320214223e-06</v>
       </c>
       <c r="K30">
-        <v>0.001243598262458345</v>
+        <v>1.916656820276303e-05</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.000003343006082</v>
+        <v>1.000001437492615</v>
       </c>
       <c r="N30">
-        <v>0.0004113360002747047</v>
+        <v>0.0003188651164920192</v>
       </c>
       <c r="O30">
-        <v>3.879038816584552e-06</v>
+        <v>4.937527063226429e-05</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0.9995910815381205</v>
       </c>
       <c r="Q30">
         <v>0.4317060148692154</v>
       </c>
       <c r="R30">
-        <v>0.9421946860745644</v>
+        <v>0.9883772550167488</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9418337432597317</v>
+        <v>0.9879529879517377</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2588,13 +2588,13 @@
         <v>1.646243255880906e-11</v>
       </c>
       <c r="F31">
-        <v>1.393388017085667e-06</v>
+        <v>7.158385272961011e-09</v>
       </c>
       <c r="G31">
         <v>1311515.211691891</v>
       </c>
       <c r="H31">
-        <v>0.9996646402685209</v>
+        <v>0.9999821737489417</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
@@ -2603,28 +2603,28 @@
         <v>1.173512872265724e-05</v>
       </c>
       <c r="K31">
-        <v>0.001576811048201949</v>
+        <v>2.430210576081858e-05</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.000004238739377</v>
+        <v>1.000001822657932</v>
       </c>
       <c r="N31">
-        <v>0.0005215503827371097</v>
+        <v>0.0004043026222768292</v>
       </c>
       <c r="O31">
-        <v>3.879571399494274e-06</v>
+        <v>4.938602938555249e-05</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0.9995909924539906</v>
       </c>
       <c r="Q31">
         <v>0.4174062644680824</v>
       </c>
       <c r="R31">
-        <v>0.9439963445092063</v>
+        <v>0.9887600727578287</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9436797661485944</v>
+        <v>0.9883380437507047</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2659,13 +2659,13 @@
         <v>1.35427013590279e-11</v>
       </c>
       <c r="F32">
-        <v>1.146260598197061e-06</v>
+        <v>5.888793993127075e-09</v>
       </c>
       <c r="G32">
         <v>1594270.607461711</v>
       </c>
       <c r="H32">
-        <v>0.9997058001785698</v>
+        <v>0.9999843492668634</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
@@ -2674,28 +2674,28 @@
         <v>1.492553543147547e-05</v>
       </c>
       <c r="K32">
-        <v>0.00200549561277851</v>
+        <v>3.090907216827095e-05</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.000005391117239</v>
+        <v>1.000002318180413</v>
       </c>
       <c r="N32">
-        <v>0.0006633432747791507</v>
+        <v>0.0005142195928520549</v>
       </c>
       <c r="O32">
-        <v>3.880441669540723e-06</v>
+        <v>4.940360978581118e-05</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0.9995908468855932</v>
       </c>
       <c r="Q32">
         <v>0.4031481993684019</v>
       </c>
       <c r="R32">
-        <v>0.9457964424801469</v>
+        <v>0.9891419221692472</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.94551818933566</v>
+        <v>0.9887217372089593</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2730,13 +2730,13 @@
         <v>1.117074318820214e-11</v>
       </c>
       <c r="F33">
-        <v>9.454969455321023e-07</v>
+        <v>4.857391715397897e-09</v>
       </c>
       <c r="G33">
         <v>1932792.685193297</v>
       </c>
       <c r="H33">
-        <v>0.9997414335099856</v>
+        <v>0.9999862346812286</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
@@ -2745,28 +2745,28 @@
         <v>1.903432388943679e-05</v>
       </c>
       <c r="K33">
-        <v>0.00255758014362216</v>
+        <v>3.941790185510856e-05</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.00000687521544</v>
+        <v>1.000002956342639</v>
       </c>
       <c r="N33">
-        <v>0.0008459522809077436</v>
+        <v>0.0006557769619439875</v>
       </c>
       <c r="O33">
-        <v>3.881869302896915e-06</v>
+        <v>4.943244953035587e-05</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.9995906080881524</v>
       </c>
       <c r="Q33">
         <v>0.3892782967905017</v>
       </c>
       <c r="R33">
-        <v>0.9475512031244496</v>
+        <v>0.9895135175853268</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.9473061981357488</v>
+        <v>0.9890948033618798</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2801,13 +2801,13 @@
         <v>9.23561378375825e-12</v>
       </c>
       <c r="F34">
-        <v>7.817066846438716e-07</v>
+        <v>4.015936372722399e-09</v>
       </c>
       <c r="G34">
         <v>2337768.905007635</v>
       </c>
       <c r="H34">
-        <v>0.9997723891401946</v>
+        <v>0.9999878742365201</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
@@ -2816,28 +2816,28 @@
         <v>2.43305496327202e-05</v>
       </c>
       <c r="K34">
-        <v>0.003269216757343929</v>
+        <v>5.038577798056951e-05</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.00000878821709</v>
+        <v>1.000003778933348</v>
       </c>
       <c r="N34">
-        <v>0.001081335175186395</v>
+        <v>0.0008382443218499189</v>
       </c>
       <c r="O34">
-        <v>3.884219160761535e-06</v>
+        <v>4.94799192117262e-05</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0.999590215032145</v>
       </c>
       <c r="Q34">
         <v>0.3760722646904778</v>
       </c>
       <c r="R34">
-        <v>0.9492254623426242</v>
+        <v>0.9898674566546655</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9490094083189912</v>
+        <v>0.9894498258707112</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2872,13 +2872,13 @@
         <v>7.650951931250183e-12</v>
       </c>
       <c r="F35">
-        <v>6.475801618150212e-07</v>
+        <v>3.326875383279081e-09</v>
       </c>
       <c r="G35">
         <v>2821966.588777401</v>
       </c>
       <c r="H35">
-        <v>0.9997993638759314</v>
+        <v>0.9999893043000715</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
@@ -2887,28 +2887,28 @@
         <v>3.116250773239341e-05</v>
       </c>
       <c r="K35">
-        <v>0.004187204728930336</v>
+        <v>6.453397969319156e-05</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.000011255926691</v>
+        <v>1.000004840048477</v>
       </c>
       <c r="N35">
-        <v>0.001384971415226004</v>
+        <v>0.001073621252113181</v>
       </c>
       <c r="O35">
-        <v>3.888098170490622e-06</v>
+        <v>4.955827942178159e-05</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0.9995895661983133</v>
       </c>
       <c r="Q35">
         <v>0.3637300507579774</v>
       </c>
       <c r="R35">
-        <v>0.9507933971953877</v>
+        <v>0.9901983587072029</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9506026336933844</v>
+        <v>0.9897813613127491</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2943,13 +2943,13 @@
         <v>6.349024996030439e-12</v>
       </c>
       <c r="F36">
-        <v>5.373844550641658e-07</v>
+        <v>2.760756459708378e-09</v>
       </c>
       <c r="G36">
         <v>3400637.221593707</v>
       </c>
       <c r="H36">
-        <v>0.9998229334443219</v>
+        <v>0.9999905549587852</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
@@ -2958,28 +2958,28 @@
         <v>3.99810993813207e-05</v>
       </c>
       <c r="K36">
-        <v>0.005372130183967132</v>
+        <v>8.279627165254003e-05</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.000014441210172</v>
+        <v>1.000006209720374</v>
       </c>
       <c r="N36">
-        <v>0.001776900635467131</v>
+        <v>0.001377442353075296</v>
       </c>
       <c r="O36">
-        <v>3.894517240845137e-06</v>
+        <v>4.968795161558111e-05</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0.999588492494787</v>
       </c>
       <c r="Q36">
         <v>0.3523793851555299</v>
       </c>
       <c r="R36">
-        <v>0.9522381858609538</v>
+        <v>0.9905027744057655</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9520695763251983</v>
+        <v>0.990085823590428</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3014,13 +3014,13 @@
         <v>5.276329581451239e-12</v>
       </c>
       <c r="F37">
-        <v>4.465910117915557e-07</v>
+        <v>2.294314636444073e-09</v>
       </c>
       <c r="G37">
         <v>4091998.118963501</v>
       </c>
       <c r="H37">
-        <v>0.9998435766341013</v>
+        <v>0.9999916512649034</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
@@ -3029,28 +3029,28 @@
         <v>5.13700963002508e-05</v>
       </c>
       <c r="K37">
-        <v>0.006902432628373602</v>
+        <v>0.0001063815781433924</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.00001855492642</v>
+        <v>1.000007978618361</v>
       </c>
       <c r="N37">
-        <v>0.002283067703800298</v>
+        <v>0.001769819925426588</v>
       </c>
       <c r="O37">
-        <v>3.905162021910023e-06</v>
+        <v>4.990298775585776e-05</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0.9995867119686331</v>
       </c>
       <c r="Q37">
         <v>0.3420847129103564</v>
       </c>
       <c r="R37">
-        <v>0.9535509755345859</v>
+        <v>0.9907789501444687</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.9534018178814367</v>
+        <v>0.9903612047302655</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3085,13 +3085,13 @@
         <v>4.390316883649627e-12</v>
       </c>
       <c r="F38">
-        <v>3.71598481271399e-07</v>
+        <v>1.909048350617701e-09</v>
       </c>
       <c r="G38">
         <v>4917806.913377466</v>
       </c>
       <c r="H38">
-        <v>0.9998616941745329</v>
+        <v>0.9999926142116449</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
@@ -3100,28 +3100,28 @@
         <v>6.608533583571003e-05</v>
       </c>
       <c r="K38">
-        <v>0.008879671466125033</v>
+        <v>0.0001368551516284503</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <v>1.000023870084586</v>
+        <v>1.000010264136372</v>
       </c>
       <c r="N38">
-        <v>0.00293706468953163</v>
+        <v>0.002276794332970256</v>
       </c>
       <c r="O38">
-        <v>3.922845898073703e-06</v>
+        <v>5.026022126326281e-05</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0.999583754037494</v>
       </c>
       <c r="Q38">
         <v>0.332858854208936</v>
       </c>
       <c r="R38">
-        <v>0.954729482666548</v>
+        <v>0.9910265181900595</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.95459743801735</v>
+        <v>0.9906066909377262</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3156,13 +3156,13 @@
         <v>3.656937444341772e-12</v>
       </c>
       <c r="F39">
-        <v>3.095249013761993e-07</v>
+        <v>1.590151823079638e-09</v>
       </c>
       <c r="G39">
         <v>5904047.047820409</v>
       </c>
       <c r="H39">
-        <v>0.9998776235470119</v>
+        <v>0.9999934614996474</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
@@ -3171,28 +3171,28 @@
         <v>8.51054816890881e-05</v>
       </c>
       <c r="K39">
-        <v>0.01143534655319199</v>
+        <v>0.0001762436923968659</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1.000030740178906</v>
+        <v>1.00001321827693</v>
       </c>
       <c r="N39">
-        <v>0.003782386848665029</v>
+        <v>0.002932082828422503</v>
       </c>
       <c r="O39">
-        <v>3.952268175100825e-06</v>
+        <v>5.085458321880672e-05</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0.9995788326771773</v>
       </c>
       <c r="Q39">
         <v>0.3246753195311401</v>
       </c>
       <c r="R39">
-        <v>0.9557764837815851</v>
+        <v>0.9912461681312444</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9556595192456505</v>
+        <v>0.9908222091026309</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3227,13 +3227,13 @@
         <v>3.048786413709048e-12</v>
       </c>
       <c r="F40">
-        <v>2.580507127570638e-07</v>
+        <v>1.325708560161738e-09</v>
       </c>
       <c r="G40">
         <v>7081745.912159</v>
       </c>
       <c r="H40">
-        <v>0.9998916506498374</v>
+        <v>0.9999942081412795</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
@@ -3242,28 +3242,28 @@
         <v>0.000109697763269508</v>
       </c>
       <c r="K40">
-        <v>0.01473973138040153</v>
+        <v>0.0002271714872248264</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>1.000039622933818</v>
+        <v>1.000017037861542</v>
       </c>
       <c r="N40">
-        <v>0.004875354311892179</v>
+        <v>0.003779344427823395</v>
       </c>
       <c r="O40">
-        <v>4.001283516478832e-06</v>
+        <v>5.184474635697005e-05</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0.9995706341080227</v>
       </c>
       <c r="Q40">
         <v>0.3174798606119735</v>
       </c>
       <c r="R40">
-        <v>0.9566983784012821</v>
+        <v>0.9914393378722659</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9565947207536808</v>
+        <v>0.9910079078255818</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3298,13 +3298,13 @@
         <v>2.543691600091465e-12</v>
       </c>
       <c r="F41">
-        <v>2.152992507071702e-07</v>
+        <v>1.106077393119273e-09</v>
       </c>
       <c r="G41">
         <v>8487951.417362699</v>
       </c>
       <c r="H41">
-        <v>0.9999040190264307</v>
+        <v>0.9999948669392246</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
@@ -3313,28 +3313,28 @@
         <v>0.0001415031139246926</v>
       </c>
       <c r="K41">
-        <v>0.01901331282039074</v>
+        <v>0.0002930367208877426</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1.000051111055969</v>
+        <v>1.000021977754067</v>
       </c>
       <c r="N41">
-        <v>0.00628889592692982</v>
+        <v>0.004875113121651025</v>
       </c>
       <c r="O41">
-        <v>4.083027982577773e-06</v>
+        <v>5.3496073366116e-05</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0.9995569612393378</v>
       </c>
       <c r="Q41">
         <v>0.3112004450217832</v>
       </c>
       <c r="R41">
-        <v>0.9575039321046958</v>
+        <v>0.9916079462169403</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.9574120299450959</v>
+        <v>0.9911635377325924</v>
       </c>
     </row>
   </sheetData>
